--- a/Data/Data.1.DataBankWorld.Development.Indicators.xlsx
+++ b/Data/Data.1.DataBankWorld.Development.Indicators.xlsx
@@ -1,13 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sumailsyr-my.sharepoint.com/personal/meiska_syr_edu/Documents/Documents/GitHub/course-project-development/Data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="11_7573F1A0FF7B8BEE6F39AF5855029CEF43AFC155" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView minimized="1" xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Data" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="Series - Metadata" sheetId="2" r:id="rId5"/>
+    <sheet name="Data" sheetId="1" r:id="rId1"/>
+    <sheet name="Series - Metadata" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataChecksum="TlrwyyYl/yGfpXKfHeot5E/QiWjsyZmJQ9MJH92NxY0="/>
@@ -1496,20 +1505,21 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
@@ -1520,40 +1530,45 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -1743,23 +1758,25 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:P1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="1" max="26" width="8.71"/>
+    <col min="1" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="12.75" customHeight="1">
+    <row r="1" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1806,7 +1823,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" ht="12.75" customHeight="1">
+    <row r="2" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>15</v>
       </c>
@@ -1820,43 +1837,43 @@
         <v>18</v>
       </c>
       <c r="E2" s="2">
-        <v>1900151.0</v>
+        <v>1900151</v>
       </c>
       <c r="F2" s="2">
-        <v>3275333.0</v>
+        <v>3275333</v>
       </c>
       <c r="G2" s="2">
-        <v>8835951.0</v>
+        <v>8835951</v>
       </c>
       <c r="H2" s="2">
-        <v>8916899.0</v>
+        <v>8916899</v>
       </c>
       <c r="I2" s="2">
-        <v>8994263.0</v>
+        <v>8994263</v>
       </c>
       <c r="J2" s="2">
-        <v>9068296.0</v>
+        <v>9068296</v>
       </c>
       <c r="K2" s="2">
-        <v>9140169.0</v>
+        <v>9140169</v>
       </c>
       <c r="L2" s="2">
-        <v>9211657.0</v>
+        <v>9211657</v>
       </c>
       <c r="M2" s="2">
-        <v>9287289.0</v>
+        <v>9287289</v>
       </c>
       <c r="N2" s="2">
-        <v>9365145.0</v>
+        <v>9365145</v>
       </c>
       <c r="O2" s="2">
-        <v>9441129.0</v>
+        <v>9441129</v>
       </c>
       <c r="P2" s="2">
-        <v>9516871.0</v>
-      </c>
-    </row>
-    <row r="3" ht="12.75" customHeight="1">
+        <v>9516871</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>15</v>
       </c>
@@ -1873,40 +1890,40 @@
         <v>5.86903318464931</v>
       </c>
       <c r="F3" s="2">
-        <v>5.58038700101525</v>
+        <v>5.5803870010152501</v>
       </c>
       <c r="G3" s="2">
-        <v>0.956397623844095</v>
+        <v>0.95639762384409499</v>
       </c>
       <c r="H3" s="2">
-        <v>0.911950036242349</v>
+        <v>0.91195003624234905</v>
       </c>
       <c r="I3" s="2">
-        <v>0.863868922846647</v>
+        <v>0.86386892284664696</v>
       </c>
       <c r="J3" s="2">
-        <v>0.819744473334198</v>
+        <v>0.81974447333419798</v>
       </c>
       <c r="K3" s="2">
-        <v>0.789450107726376</v>
+        <v>0.78945010772637603</v>
       </c>
       <c r="L3" s="2">
-        <v>0.779087177439076</v>
+        <v>0.77908717743907596</v>
       </c>
       <c r="M3" s="2">
-        <v>0.817694385518168</v>
+        <v>0.81769438551816798</v>
       </c>
       <c r="N3" s="2">
         <v>0.834812788038646</v>
       </c>
       <c r="O3" s="2">
-        <v>0.808075150558113</v>
+        <v>0.80807515055811296</v>
       </c>
       <c r="P3" s="2">
-        <v>0.799054784290549</v>
-      </c>
-    </row>
-    <row r="4" ht="12.75" customHeight="1">
+        <v>0.79905478429054899</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>15</v>
       </c>
@@ -1956,7 +1973,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" ht="12.75" customHeight="1">
+    <row r="5" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>15</v>
       </c>
@@ -1973,10 +1990,10 @@
         <v>26.75515347789355</v>
       </c>
       <c r="F5" s="2">
-        <v>46.11845958884821</v>
+        <v>46.118459588848211</v>
       </c>
       <c r="G5" s="2">
-        <v>124.4149676147564</v>
+        <v>124.41496761475641</v>
       </c>
       <c r="H5" s="2">
         <v>125.55475922275416</v>
@@ -1994,7 +2011,7 @@
         <v>129.70511123627148</v>
       </c>
       <c r="M5" s="2">
-        <v>130.7700506899465</v>
+        <v>130.77005068994649</v>
       </c>
       <c r="N5" s="2">
         <v>131.86630526612223</v>
@@ -2006,7 +2023,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" ht="12.75" customHeight="1">
+    <row r="6" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>15</v>
       </c>
@@ -2056,7 +2073,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" ht="12.75" customHeight="1">
+    <row r="7" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>15</v>
       </c>
@@ -2088,7 +2105,7 @@
         <v>23</v>
       </c>
       <c r="K7" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>23</v>
@@ -2106,7 +2123,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" ht="12.75" customHeight="1">
+    <row r="8" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>15</v>
       </c>
@@ -2120,43 +2137,43 @@
         <v>31</v>
       </c>
       <c r="E8" s="2">
-        <v>5.549521641787327E10</v>
+        <v>55495216417.873268</v>
       </c>
       <c r="F8" s="2">
-        <v>9.84249730477077E10</v>
+        <v>98424973047.707703</v>
       </c>
       <c r="G8" s="2">
-        <v>4.190373861431565E11</v>
+        <v>419037386143.15649</v>
       </c>
       <c r="H8" s="2">
-        <v>4.1257361504721063E11</v>
+        <v>412573615047.21063</v>
       </c>
       <c r="I8" s="2">
-        <v>3.998428736971104E11</v>
+        <v>399842873697.11041</v>
       </c>
       <c r="J8" s="2">
-        <v>3.81719728589597E11</v>
+        <v>381719728589.59698</v>
       </c>
       <c r="K8" s="2">
-        <v>4.0535446427753394E11</v>
+        <v>405354464277.53394</v>
       </c>
       <c r="L8" s="2">
-        <v>4.257068528837897E11</v>
+        <v>425706852883.78967</v>
       </c>
       <c r="M8" s="2">
-        <v>3.863872900973427E11</v>
+        <v>386387290097.34271</v>
       </c>
       <c r="N8" s="2">
-        <v>4.0824544664224384E11</v>
+        <v>408245446642.24384</v>
       </c>
       <c r="O8" s="2">
-        <v>4.641053900487902E11</v>
+        <v>464105390048.79022</v>
       </c>
       <c r="P8" s="2">
-        <v>5.071490272128707E11</v>
-      </c>
-    </row>
-    <row r="9" ht="12.75" customHeight="1">
+        <v>507149027212.87073</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>15</v>
       </c>
@@ -2170,43 +2187,43 @@
         <v>33</v>
       </c>
       <c r="E9" s="2">
-        <v>29210.0</v>
+        <v>29210</v>
       </c>
       <c r="F9" s="2">
-        <v>30050.0</v>
+        <v>30050</v>
       </c>
       <c r="G9" s="2">
-        <v>47420.0</v>
+        <v>47420</v>
       </c>
       <c r="H9" s="2">
-        <v>46270.0</v>
+        <v>46270</v>
       </c>
       <c r="I9" s="2">
-        <v>44460.0</v>
+        <v>44460</v>
       </c>
       <c r="J9" s="2">
-        <v>42090.0</v>
+        <v>42090</v>
       </c>
       <c r="K9" s="2">
-        <v>44350.0</v>
+        <v>44350</v>
       </c>
       <c r="L9" s="2">
-        <v>46210.0</v>
+        <v>46210</v>
       </c>
       <c r="M9" s="2">
-        <v>41600.0</v>
+        <v>41600</v>
       </c>
       <c r="N9" s="2">
-        <v>43590.0</v>
+        <v>43590</v>
       </c>
       <c r="O9" s="2">
-        <v>49160.0</v>
+        <v>49160</v>
       </c>
       <c r="P9" s="2">
-        <v>53290.0</v>
-      </c>
-    </row>
-    <row r="10" ht="12.75" customHeight="1">
+        <v>53290</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>15</v>
       </c>
@@ -2220,43 +2237,43 @@
         <v>35</v>
       </c>
       <c r="E10" s="2">
-        <v>1.7586281500132742E11</v>
+        <v>175862815001.32742</v>
       </c>
       <c r="F10" s="2">
-        <v>3.345941227240952E11</v>
+        <v>334594122724.09521</v>
       </c>
       <c r="G10" s="2">
-        <v>6.881357504943911E11</v>
+        <v>688135750494.39111</v>
       </c>
       <c r="H10" s="2">
-        <v>6.128706431238994E11</v>
+        <v>612870643123.89941</v>
       </c>
       <c r="I10" s="2">
-        <v>6.083598541883688E11</v>
+        <v>608359854188.36877</v>
       </c>
       <c r="J10" s="2">
-        <v>6.320445164279512E11</v>
+        <v>632044516427.95117</v>
       </c>
       <c r="K10" s="2">
-        <v>7.040081819532561E11</v>
+        <v>704008181953.2561</v>
       </c>
       <c r="L10" s="2">
-        <v>7.298355295774752E11</v>
+        <v>729835529577.47522</v>
       </c>
       <c r="M10" s="2">
-        <v>6.110816075717457E11</v>
+        <v>611081607571.74573</v>
       </c>
       <c r="N10" s="2">
-        <v>6.44231414365766E11</v>
+        <v>644231414365.76599</v>
       </c>
       <c r="O10" s="2">
-        <v>7.41391655225445E11</v>
+        <v>741391655225.44495</v>
       </c>
       <c r="P10" s="2">
-        <v>7.970344427277892E11</v>
-      </c>
-    </row>
-    <row r="11" ht="12.75" customHeight="1">
+        <v>797034442727.78918</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>15</v>
       </c>
@@ -2270,43 +2287,43 @@
         <v>37</v>
       </c>
       <c r="E11" s="2">
-        <v>92550.0</v>
+        <v>92550</v>
       </c>
       <c r="F11" s="2">
-        <v>102160.0</v>
+        <v>102160</v>
       </c>
       <c r="G11" s="2">
-        <v>77880.0</v>
+        <v>77880</v>
       </c>
       <c r="H11" s="2">
-        <v>68730.0</v>
+        <v>68730</v>
       </c>
       <c r="I11" s="2">
-        <v>67640.0</v>
+        <v>67640</v>
       </c>
       <c r="J11" s="2">
-        <v>69700.0</v>
+        <v>69700</v>
       </c>
       <c r="K11" s="2">
-        <v>77020.0</v>
+        <v>77020</v>
       </c>
       <c r="L11" s="2">
-        <v>79230.0</v>
+        <v>79230</v>
       </c>
       <c r="M11" s="2">
-        <v>65800.0</v>
+        <v>65800</v>
       </c>
       <c r="N11" s="2">
-        <v>68790.0</v>
+        <v>68790</v>
       </c>
       <c r="O11" s="2">
-        <v>78530.0</v>
+        <v>78530</v>
       </c>
       <c r="P11" s="2">
-        <v>83750.0</v>
-      </c>
-    </row>
-    <row r="12" ht="12.75" customHeight="1">
+        <v>83750</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>15</v>
       </c>
@@ -2338,7 +2355,7 @@
         <v>23</v>
       </c>
       <c r="K12" s="2">
-        <v>8.2</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>23</v>
@@ -2356,7 +2373,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" ht="12.75" customHeight="1">
+    <row r="13" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>15</v>
       </c>
@@ -2370,43 +2387,43 @@
         <v>41</v>
       </c>
       <c r="E13" s="2">
-        <v>71.9</v>
+        <v>71.900000000000006</v>
       </c>
       <c r="F13" s="2">
         <v>74.38</v>
       </c>
       <c r="G13" s="2">
-        <v>79.044</v>
+        <v>79.043999999999997</v>
       </c>
       <c r="H13" s="2">
-        <v>79.223</v>
+        <v>79.222999999999999</v>
       </c>
       <c r="I13" s="2">
-        <v>79.335</v>
+        <v>79.334999999999994</v>
       </c>
       <c r="J13" s="2">
-        <v>79.504</v>
+        <v>79.504000000000005</v>
       </c>
       <c r="K13" s="2">
-        <v>79.627</v>
+        <v>79.626999999999995</v>
       </c>
       <c r="L13" s="2">
-        <v>79.726</v>
+        <v>79.725999999999999</v>
       </c>
       <c r="M13" s="2">
-        <v>78.946</v>
+        <v>78.945999999999998</v>
       </c>
       <c r="N13" s="2">
-        <v>78.71</v>
+        <v>78.709999999999994</v>
       </c>
       <c r="O13" s="2">
-        <v>79.196</v>
+        <v>79.195999999999998</v>
       </c>
       <c r="P13" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="14" ht="12.75" customHeight="1">
+    <row r="14" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>15</v>
       </c>
@@ -2420,28 +2437,28 @@
         <v>43</v>
       </c>
       <c r="E14" s="2">
-        <v>4.537</v>
+        <v>4.5369999999999999</v>
       </c>
       <c r="F14" s="2">
-        <v>2.733</v>
+        <v>2.7330000000000001</v>
       </c>
       <c r="G14" s="2">
-        <v>1.545</v>
+        <v>1.5449999999999999</v>
       </c>
       <c r="H14" s="2">
         <v>1.486</v>
       </c>
       <c r="I14" s="2">
-        <v>1.438</v>
+        <v>1.4379999999999999</v>
       </c>
       <c r="J14" s="2">
         <v>1.419</v>
       </c>
       <c r="K14" s="2">
-        <v>1.356</v>
+        <v>1.3560000000000001</v>
       </c>
       <c r="L14" s="2">
-        <v>1.334</v>
+        <v>1.3340000000000001</v>
       </c>
       <c r="M14" s="2">
         <v>1.46</v>
@@ -2450,13 +2467,13 @@
         <v>1.46</v>
       </c>
       <c r="O14" s="2">
-        <v>1.443</v>
+        <v>1.4430000000000001</v>
       </c>
       <c r="P14" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="15" ht="12.75" customHeight="1">
+    <row r="15" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>15</v>
       </c>
@@ -2470,28 +2487,28 @@
         <v>45</v>
       </c>
       <c r="E15" s="2">
-        <v>48.493</v>
+        <v>48.493000000000002</v>
       </c>
       <c r="F15" s="2">
-        <v>25.818</v>
+        <v>25.818000000000001</v>
       </c>
       <c r="G15" s="2">
-        <v>8.819</v>
+        <v>8.8190000000000008</v>
       </c>
       <c r="H15" s="2">
-        <v>7.785</v>
+        <v>7.7850000000000001</v>
       </c>
       <c r="I15" s="2">
-        <v>7.035</v>
+        <v>7.0350000000000001</v>
       </c>
       <c r="J15" s="2">
         <v>5.593</v>
       </c>
       <c r="K15" s="2">
-        <v>4.275</v>
+        <v>4.2750000000000004</v>
       </c>
       <c r="L15" s="2">
-        <v>3.825</v>
+        <v>3.8250000000000002</v>
       </c>
       <c r="M15" s="2">
         <v>3.077</v>
@@ -2500,13 +2517,13 @@
         <v>3.085</v>
       </c>
       <c r="O15" s="2">
-        <v>2.844</v>
+        <v>2.8439999999999999</v>
       </c>
       <c r="P15" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="16" ht="12.75" customHeight="1">
+    <row r="16" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
@@ -2556,7 +2573,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" ht="12.75" customHeight="1">
+    <row r="17" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>15</v>
       </c>
@@ -2606,7 +2623,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" ht="12.75" customHeight="1">
+    <row r="18" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>15</v>
       </c>
@@ -2635,7 +2652,7 @@
         <v>7.3</v>
       </c>
       <c r="J18" s="2">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="K18" s="2">
         <v>6.7</v>
@@ -2656,7 +2673,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" ht="12.75" customHeight="1">
+    <row r="19" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>15</v>
       </c>
@@ -2706,7 +2723,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" ht="12.75" customHeight="1">
+    <row r="20" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>15</v>
       </c>
@@ -2720,43 +2737,43 @@
         <v>55</v>
       </c>
       <c r="E20" s="2">
-        <v>80.0</v>
+        <v>80</v>
       </c>
       <c r="F20" s="2">
-        <v>94.0</v>
+        <v>94</v>
       </c>
       <c r="G20" s="2">
-        <v>99.0</v>
+        <v>99</v>
       </c>
       <c r="H20" s="2">
-        <v>99.0</v>
+        <v>99</v>
       </c>
       <c r="I20" s="2">
-        <v>99.0</v>
+        <v>99</v>
       </c>
       <c r="J20" s="2">
-        <v>99.0</v>
+        <v>99</v>
       </c>
       <c r="K20" s="2">
-        <v>99.0</v>
+        <v>99</v>
       </c>
       <c r="L20" s="2">
-        <v>99.0</v>
+        <v>99</v>
       </c>
       <c r="M20" s="2">
-        <v>99.0</v>
+        <v>99</v>
       </c>
       <c r="N20" s="2">
-        <v>99.0</v>
+        <v>99</v>
       </c>
       <c r="O20" s="2">
-        <v>98.0</v>
+        <v>98</v>
       </c>
       <c r="P20" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="21" ht="12.75" customHeight="1">
+    <row r="21" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>15</v>
       </c>
@@ -2770,16 +2787,16 @@
         <v>57</v>
       </c>
       <c r="E21" s="2">
-        <v>84.1204986572266</v>
+        <v>84.120498657226605</v>
       </c>
       <c r="F21" s="2">
-        <v>94.9609298706055</v>
+        <v>94.960929870605497</v>
       </c>
       <c r="G21" s="2">
         <v>112.281379699707</v>
       </c>
       <c r="H21" s="2">
-        <v>125.165298461914</v>
+        <v>125.16529846191401</v>
       </c>
       <c r="I21" s="2" t="s">
         <v>23</v>
@@ -2791,7 +2808,7 @@
         <v>23</v>
       </c>
       <c r="L21" s="2">
-        <v>118.872009277344</v>
+        <v>118.87200927734401</v>
       </c>
       <c r="M21" s="2">
         <v>105.32071685791</v>
@@ -2806,7 +2823,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" ht="12.75" customHeight="1">
+    <row r="22" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>15</v>
       </c>
@@ -2835,7 +2852,7 @@
         <v>116.86792755127</v>
       </c>
       <c r="J22" s="2">
-        <v>111.890777587891</v>
+        <v>111.89077758789099</v>
       </c>
       <c r="K22" s="2" t="s">
         <v>23</v>
@@ -2844,7 +2861,7 @@
         <v>115.148788452148</v>
       </c>
       <c r="M22" s="2">
-        <v>115.833160400391</v>
+        <v>115.83316040039099</v>
       </c>
       <c r="N22" s="2" t="s">
         <v>23</v>
@@ -2856,7 +2873,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" ht="12.75" customHeight="1">
+    <row r="23" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>15</v>
       </c>
@@ -2870,7 +2887,7 @@
         <v>61</v>
       </c>
       <c r="E23" s="2">
-        <v>54.3731384277344</v>
+        <v>54.373138427734403</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>23</v>
@@ -2882,16 +2899,16 @@
         <v>23</v>
       </c>
       <c r="I23" s="2">
-        <v>81.5097885131836</v>
+        <v>81.509788513183594</v>
       </c>
       <c r="J23" s="2">
-        <v>105.197357177734</v>
+        <v>105.19735717773401</v>
       </c>
       <c r="K23" s="2" t="s">
         <v>23</v>
       </c>
       <c r="L23" s="2">
-        <v>120.530738830566</v>
+        <v>120.53073883056599</v>
       </c>
       <c r="M23" s="2">
         <v>120.353652954102</v>
@@ -2906,7 +2923,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" ht="12.75" customHeight="1">
+    <row r="24" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>15</v>
       </c>
@@ -2920,7 +2937,7 @@
         <v>63</v>
       </c>
       <c r="E24" s="2">
-        <v>1.04027998447418</v>
+        <v>1.0402799844741799</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>23</v>
@@ -2932,16 +2949,16 @@
         <v>23</v>
       </c>
       <c r="I24" s="2">
-        <v>0.960950016975403</v>
+        <v>0.96095001697540305</v>
       </c>
       <c r="J24" s="2">
-        <v>0.948279976844788</v>
+        <v>0.94827997684478804</v>
       </c>
       <c r="K24" s="2" t="s">
         <v>23</v>
       </c>
       <c r="L24" s="2">
-        <v>0.994229972362518</v>
+        <v>0.99422997236251798</v>
       </c>
       <c r="M24" s="2">
         <v>1.01047003269196</v>
@@ -2956,7 +2973,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" ht="12.75" customHeight="1">
+    <row r="25" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>15</v>
       </c>
@@ -3006,7 +3023,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" ht="12.75" customHeight="1">
+    <row r="26" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>15</v>
       </c>
@@ -3020,34 +3037,34 @@
         <v>67</v>
       </c>
       <c r="E26" s="2">
-        <v>2450.0</v>
+        <v>2450</v>
       </c>
       <c r="F26" s="2">
         <v>3094.3</v>
       </c>
       <c r="G26" s="2">
-        <v>3173.0</v>
+        <v>3173</v>
       </c>
       <c r="H26" s="2">
-        <v>3173.0</v>
+        <v>3173</v>
       </c>
       <c r="I26" s="2">
-        <v>3173.0</v>
+        <v>3173</v>
       </c>
       <c r="J26" s="2">
-        <v>3173.0</v>
+        <v>3173</v>
       </c>
       <c r="K26" s="2">
-        <v>3173.0</v>
+        <v>3173</v>
       </c>
       <c r="L26" s="2">
-        <v>3173.0</v>
+        <v>3173</v>
       </c>
       <c r="M26" s="2">
-        <v>3173.0</v>
+        <v>3173</v>
       </c>
       <c r="N26" s="2">
-        <v>3173.0</v>
+        <v>3173</v>
       </c>
       <c r="O26" s="2" t="s">
         <v>23</v>
@@ -3056,7 +3073,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="27" ht="12.75" customHeight="1">
+    <row r="27" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>15</v>
       </c>
@@ -3082,7 +3099,7 @@
         <v>23</v>
       </c>
       <c r="I27" s="2">
-        <v>9.23566752233697</v>
+        <v>9.2356675223369695</v>
       </c>
       <c r="J27" s="2">
         <v>15.0438947733197</v>
@@ -3094,19 +3111,19 @@
         <v>15.0438895628923</v>
       </c>
       <c r="M27" s="2">
-        <v>15.9236658269911</v>
+        <v>15.923665826991099</v>
       </c>
       <c r="N27" s="2">
-        <v>15.9236658269911</v>
+        <v>15.923665826991099</v>
       </c>
       <c r="O27" s="2">
-        <v>15.9236658269911</v>
+        <v>15.923665826991099</v>
       </c>
       <c r="P27" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="28" ht="12.75" customHeight="1">
+    <row r="28" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>15</v>
       </c>
@@ -3135,7 +3152,7 @@
         <v>1679.3333333333337</v>
       </c>
       <c r="J28" s="2">
-        <v>1630.0</v>
+        <v>1630</v>
       </c>
       <c r="K28" s="2">
         <v>1667.3333333333333</v>
@@ -3156,7 +3173,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="29" ht="12.75" customHeight="1">
+    <row r="29" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>15</v>
       </c>
@@ -3170,10 +3187,10 @@
         <v>73</v>
       </c>
       <c r="E29" s="2">
-        <v>5.685723145012248</v>
+        <v>5.6857231450122478</v>
       </c>
       <c r="F29" s="2">
-        <v>6.112729361045069</v>
+        <v>6.1127293610450693</v>
       </c>
       <c r="G29" s="2">
         <v>1.3189869012851856</v>
@@ -3206,7 +3223,7 @@
         <v>1.0682662165154435</v>
       </c>
     </row>
-    <row r="30" ht="12.75" customHeight="1">
+    <row r="30" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>15</v>
       </c>
@@ -3223,7 +3240,7 @@
         <v>10748.654712178137</v>
       </c>
       <c r="F30" s="2">
-        <v>9624.118219429902</v>
+        <v>9624.1182194299017</v>
       </c>
       <c r="G30" s="2">
         <v>7975.790608164305</v>
@@ -3256,7 +3273,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="31" ht="12.75" customHeight="1">
+    <row r="31" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>15</v>
       </c>
@@ -3282,7 +3299,7 @@
         <v>21.914501891296513</v>
       </c>
       <c r="I31" s="2">
-        <v>22.28070271016091</v>
+        <v>22.280702710160909</v>
       </c>
       <c r="J31" s="2">
         <v>21.165497906111575</v>
@@ -3306,7 +3323,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="32" ht="12.75" customHeight="1">
+    <row r="32" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>15</v>
       </c>
@@ -3320,7 +3337,7 @@
         <v>79</v>
       </c>
       <c r="E32" s="2">
-        <v>8179.876230889019</v>
+        <v>8179.8762308890191</v>
       </c>
       <c r="F32" s="2">
         <v>11782.924056882155</v>
@@ -3356,7 +3373,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="33" ht="12.75" customHeight="1">
+    <row r="33" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>15</v>
       </c>
@@ -3370,43 +3387,43 @@
         <v>81</v>
       </c>
       <c r="E33" s="2">
-        <v>5.070144374829747E10</v>
+        <v>50701443748.29747</v>
       </c>
       <c r="F33" s="2">
-        <v>1.0433737236215112E11</v>
+        <v>104337372362.15112</v>
       </c>
       <c r="G33" s="2">
-        <v>4.141053667528931E11</v>
+        <v>414105366752.89313</v>
       </c>
       <c r="H33" s="2">
-        <v>3.7027546957113684E11</v>
+        <v>370275469571.13684</v>
       </c>
       <c r="I33" s="2">
-        <v>3.6925532623553436E11</v>
+        <v>369255326235.53436</v>
       </c>
       <c r="J33" s="2">
-        <v>3.9051680402995233E11</v>
+        <v>390516804029.95233</v>
       </c>
       <c r="K33" s="2">
-        <v>4.270494321579306E11</v>
+        <v>427049432157.9306</v>
       </c>
       <c r="L33" s="2">
-        <v>4.179897217426821E11</v>
+        <v>417989721742.68213</v>
       </c>
       <c r="M33" s="2">
-        <v>3.4947301533015656E11</v>
+        <v>349473015330.15656</v>
       </c>
       <c r="N33" s="2">
-        <v>4.1517879275697754E11</v>
+        <v>415178792756.97754</v>
       </c>
       <c r="O33" s="2">
-        <v>5.0706396827774E11</v>
+        <v>507063968277.73999</v>
       </c>
       <c r="P33" s="2">
-        <v>5.0417345132743365E11</v>
-      </c>
-    </row>
-    <row r="34" ht="12.75" customHeight="1">
+        <v>504173451327.43365</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>15</v>
       </c>
@@ -3426,13 +3443,13 @@
         <v>10.852704215377983</v>
       </c>
       <c r="G34" s="2">
-        <v>4.165691840649217</v>
+        <v>4.1656918406492167</v>
       </c>
       <c r="H34" s="2">
-        <v>6.786772876566175</v>
+        <v>6.7867728765661752</v>
       </c>
       <c r="I34" s="2">
-        <v>5.561490759799327</v>
+        <v>5.5614907597993266</v>
       </c>
       <c r="J34" s="2">
         <v>0.7350687139412031</v>
@@ -3444,7 +3461,7 @@
         <v>1.1083481345329602</v>
       </c>
       <c r="M34" s="2">
-        <v>-4.957052433033155</v>
+        <v>-4.9570524330331551</v>
       </c>
       <c r="N34" s="2">
         <v>4.354755296599194</v>
@@ -3456,7 +3473,7 @@
         <v>3.4038572060948695</v>
       </c>
     </row>
-    <row r="35" ht="12.75" customHeight="1">
+    <row r="35" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>15</v>
       </c>
@@ -3476,19 +3493,19 @@
         <v>11.459535793989389</v>
       </c>
       <c r="G35" s="2">
-        <v>-0.6680493556906271</v>
+        <v>-0.66804935569062707</v>
       </c>
       <c r="H35" s="2">
         <v>-16.267006025706948</v>
       </c>
       <c r="I35" s="2">
-        <v>-5.529478612645775</v>
+        <v>-5.5294786126457751</v>
       </c>
       <c r="J35" s="2">
-        <v>4.986213144017199</v>
+        <v>4.9862131440171993</v>
       </c>
       <c r="K35" s="2">
-        <v>7.936748033198256</v>
+        <v>7.9367480331982563</v>
       </c>
       <c r="L35" s="2">
         <v>-3.1944094044690274</v>
@@ -3506,7 +3523,7 @@
         <v>-3.8430935524466463</v>
       </c>
     </row>
-    <row r="36" ht="12.75" customHeight="1">
+    <row r="36" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>15</v>
       </c>
@@ -3526,28 +3543,28 @@
         <v>2.2626500930374576</v>
       </c>
       <c r="G36" s="2">
-        <v>0.6287160034809723</v>
+        <v>0.62871600348097234</v>
       </c>
       <c r="H36" s="2">
-        <v>0.7236715904928294</v>
+        <v>0.72367159049282936</v>
       </c>
       <c r="I36" s="2">
-        <v>0.7508629151751307</v>
+        <v>0.75086291517513071</v>
       </c>
       <c r="J36" s="2">
-        <v>0.761757604094752</v>
+        <v>0.76175760409475202</v>
       </c>
       <c r="K36" s="2">
-        <v>0.7114640022508051</v>
+        <v>0.71146400225080508</v>
       </c>
       <c r="L36" s="2">
-        <v>0.7467122027944978</v>
+        <v>0.74671220279449779</v>
       </c>
       <c r="M36" s="2">
         <v>0.9638907144225044</v>
       </c>
       <c r="N36" s="2">
-        <v>0.9434183575643539</v>
+        <v>0.94341835756435388</v>
       </c>
       <c r="O36" s="2">
         <v>0.8237395076051871</v>
@@ -3556,7 +3573,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="37" ht="12.75" customHeight="1">
+    <row r="37" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>15</v>
       </c>
@@ -3573,13 +3590,13 @@
         <v>58.902350570852924</v>
       </c>
       <c r="F37" s="2">
-        <v>48.51701163163952</v>
+        <v>48.517011631639519</v>
       </c>
       <c r="G37" s="2">
-        <v>51.98971367132761</v>
+        <v>51.989713671327607</v>
       </c>
       <c r="H37" s="2">
-        <v>43.35424493063124</v>
+        <v>43.354244930631239</v>
       </c>
       <c r="I37" s="2">
         <v>41.02857172834922</v>
@@ -3588,7 +3605,7 @@
         <v>42.52803476431567</v>
       </c>
       <c r="K37" s="2">
-        <v>46.91895758634407</v>
+        <v>46.918957586344071</v>
       </c>
       <c r="L37" s="2">
         <v>44.524516037961206</v>
@@ -3597,16 +3614,16 @@
         <v>42.174043072932065</v>
       </c>
       <c r="N37" s="2">
-        <v>47.13932401962735</v>
+        <v>47.139324019627352</v>
       </c>
       <c r="O37" s="2">
-        <v>51.46446358098395</v>
+        <v>51.464463580983953</v>
       </c>
       <c r="P37" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="38" ht="12.75" customHeight="1">
+    <row r="38" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>15</v>
       </c>
@@ -3626,25 +3643,25 @@
         <v>23</v>
       </c>
       <c r="G38" s="2">
-        <v>96.92379674349858</v>
+        <v>96.923796743498585</v>
       </c>
       <c r="H38" s="2">
-        <v>97.56318807059785</v>
+        <v>97.563188070597846</v>
       </c>
       <c r="I38" s="2">
-        <v>97.66312108615558</v>
+        <v>97.663121086155584</v>
       </c>
       <c r="J38" s="2">
-        <v>98.342392206754</v>
+        <v>98.342392206753999</v>
       </c>
       <c r="K38" s="2">
-        <v>91.99477686712301</v>
+        <v>91.994776867123008</v>
       </c>
       <c r="L38" s="2">
-        <v>96.6641687524381</v>
+        <v>96.664168752438101</v>
       </c>
       <c r="M38" s="2">
-        <v>95.92659858616018</v>
+        <v>95.926598586160182</v>
       </c>
       <c r="N38" s="2" t="s">
         <v>23</v>
@@ -3656,7 +3673,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="39" ht="12.75" customHeight="1">
+    <row r="39" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>15</v>
       </c>
@@ -3676,25 +3693,25 @@
         <v>23</v>
       </c>
       <c r="G39" s="2">
-        <v>67.1057131201116</v>
+        <v>67.105713120111602</v>
       </c>
       <c r="H39" s="2">
-        <v>71.91304862760055</v>
+        <v>71.913048627600546</v>
       </c>
       <c r="I39" s="2">
-        <v>73.2399666737917</v>
+        <v>73.239966673791699</v>
       </c>
       <c r="J39" s="2">
-        <v>74.46103278331863</v>
+        <v>74.461032783318629</v>
       </c>
       <c r="K39" s="2">
-        <v>65.92579626556405</v>
+        <v>65.925796265564045</v>
       </c>
       <c r="L39" s="2">
-        <v>70.71939617027844</v>
+        <v>70.719396170278443</v>
       </c>
       <c r="M39" s="2">
-        <v>70.64530073913048</v>
+        <v>70.645300739130477</v>
       </c>
       <c r="N39" s="2" t="s">
         <v>23</v>
@@ -3706,7 +3723,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="40" ht="12.75" customHeight="1">
+    <row r="40" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>15</v>
       </c>
@@ -3729,7 +3746,7 @@
         <v>21.581267907459008</v>
       </c>
       <c r="H40" s="2">
-        <v>24.79853452428833</v>
+        <v>24.798534524288328</v>
       </c>
       <c r="I40" s="2">
         <v>25.159326151235582</v>
@@ -3741,10 +3758,10 @@
         <v>23.24534236506549</v>
       </c>
       <c r="L40" s="2">
-        <v>22.42276242326806</v>
+        <v>22.422762423268061</v>
       </c>
       <c r="M40" s="2">
-        <v>22.78644749470202</v>
+        <v>22.786447494702021</v>
       </c>
       <c r="N40" s="2" t="s">
         <v>23</v>
@@ -3756,7 +3773,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="41" ht="12.75" customHeight="1">
+    <row r="41" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>15</v>
       </c>
@@ -3791,13 +3808,13 @@
         <v>3.0415794624500525</v>
       </c>
       <c r="L41" s="2">
-        <v>4.36583753982759</v>
+        <v>4.3658375398275897</v>
       </c>
       <c r="M41" s="2">
-        <v>4.113150499563249</v>
+        <v>4.1131504995632486</v>
       </c>
       <c r="N41" s="2">
-        <v>3.086346969469454</v>
+        <v>3.0863469694694539</v>
       </c>
       <c r="O41" s="2">
         <v>2.9772935755889463</v>
@@ -3806,7 +3823,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="42" ht="12.75" customHeight="1">
+    <row r="42" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>15</v>
       </c>
@@ -3826,16 +3843,16 @@
         <v>23</v>
       </c>
       <c r="G42" s="2">
-        <v>8.3</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="H42" s="2">
-        <v>8.3</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="I42" s="2">
-        <v>8.3</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="J42" s="2">
-        <v>8.3</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="K42" s="2">
         <v>3.8</v>
@@ -3856,7 +3873,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="43" ht="12.75" customHeight="1">
+    <row r="43" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>15</v>
       </c>
@@ -3888,10 +3905,10 @@
         <v>100.29648008366428</v>
       </c>
       <c r="K43" s="2">
-        <v>89.35644427734361</v>
+        <v>89.356444277343613</v>
       </c>
       <c r="L43" s="2">
-        <v>96.19975913223394</v>
+        <v>96.199759132233936</v>
       </c>
       <c r="M43" s="2">
         <v>118.17400229282991</v>
@@ -3900,13 +3917,13 @@
         <v>101.05046370913809</v>
       </c>
       <c r="O43" s="2">
-        <v>78.80753790425891</v>
+        <v>78.807537904258908</v>
       </c>
       <c r="P43" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="44" ht="12.75" customHeight="1">
+    <row r="44" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>15</v>
       </c>
@@ -3926,37 +3943,37 @@
         <v>23</v>
       </c>
       <c r="G44" s="2">
-        <v>0.06580836809842422</v>
+        <v>6.5808368098424219E-2</v>
       </c>
       <c r="H44" s="2">
-        <v>0.08140129579180297</v>
+        <v>8.1401295791802969E-2</v>
       </c>
       <c r="I44" s="2">
-        <v>0.05014684723414018</v>
+        <v>5.0146847234140181E-2</v>
       </c>
       <c r="J44" s="2">
-        <v>0.06562139819123357</v>
+        <v>6.5621398191233568E-2</v>
       </c>
       <c r="K44" s="2">
-        <v>0.05863886269607593</v>
+        <v>5.8638862696075933E-2</v>
       </c>
       <c r="L44" s="2">
-        <v>0.9722383894816732</v>
+        <v>0.97223838948167318</v>
       </c>
       <c r="M44" s="2">
-        <v>0.6820882744790577</v>
+        <v>0.68208827447905773</v>
       </c>
       <c r="N44" s="2">
-        <v>0.5352436687002126</v>
+        <v>0.53524366870021256</v>
       </c>
       <c r="O44" s="2">
-        <v>0.5735653334092732</v>
+        <v>0.57356533340927318</v>
       </c>
       <c r="P44" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="45" ht="12.75" customHeight="1">
+    <row r="45" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>15</v>
       </c>
@@ -3976,7 +3993,7 @@
         <v>8.3237222448449</v>
       </c>
       <c r="G45" s="2">
-        <v>5.64365135247024</v>
+        <v>5.6436513524702399</v>
       </c>
       <c r="H45" s="2" t="s">
         <v>23</v>
@@ -4006,7 +4023,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="46" ht="12.75" customHeight="1">
+    <row r="46" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>15</v>
       </c>
@@ -4023,7 +4040,7 @@
         <v>1.767122718</v>
       </c>
       <c r="F46" s="2">
-        <v>43.60213145</v>
+        <v>43.602131450000002</v>
       </c>
       <c r="G46" s="2">
         <v>190.3476162</v>
@@ -4035,28 +4052,28 @@
         <v>221.308772</v>
       </c>
       <c r="J46" s="2">
-        <v>218.6322987</v>
+        <v>218.63229870000001</v>
       </c>
       <c r="K46" s="2">
-        <v>219.700673</v>
+        <v>219.70067299999999</v>
       </c>
       <c r="L46" s="2">
         <v>212.804439</v>
       </c>
       <c r="M46" s="2">
-        <v>197.8438703</v>
+        <v>197.84387029999999</v>
       </c>
       <c r="N46" s="2">
-        <v>194.7336208</v>
+        <v>194.73362080000001</v>
       </c>
       <c r="O46" s="2">
-        <v>212.2208173</v>
+        <v>212.22081729999999</v>
       </c>
       <c r="P46" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="47" ht="12.75" customHeight="1">
+    <row r="47" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>15</v>
       </c>
@@ -4097,16 +4114,16 @@
         <v>5.37646598558349</v>
       </c>
       <c r="N47" s="2">
-        <v>8.957950708052243</v>
+        <v>8.9579507080522429</v>
       </c>
       <c r="O47" s="2">
-        <v>9.285601105378664</v>
+        <v>9.2856011053786638</v>
       </c>
       <c r="P47" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="48" ht="12.75" customHeight="1">
+    <row r="48" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>15</v>
       </c>
@@ -4120,10 +4137,10 @@
         <v>111</v>
       </c>
       <c r="E48" s="2">
-        <v>68.52467588985897</v>
+        <v>68.524675889858969</v>
       </c>
       <c r="F48" s="2">
-        <v>81.31697979273395</v>
+        <v>81.316979792733946</v>
       </c>
       <c r="G48" s="2">
         <v>149.49359503698702</v>
@@ -4132,31 +4149,31 @@
         <v>152.29040169825925</v>
       </c>
       <c r="I48" s="2">
-        <v>152.0917804288547</v>
+        <v>152.09178042885469</v>
       </c>
       <c r="J48" s="2">
         <v>146.30253912356073</v>
       </c>
       <c r="K48" s="2">
-        <v>148.1449107198517</v>
+        <v>148.14491071985171</v>
       </c>
       <c r="L48" s="2">
-        <v>162.1750403751089</v>
+        <v>162.17504037510889</v>
       </c>
       <c r="M48" s="2">
-        <v>166.610288765765</v>
+        <v>166.61028876576501</v>
       </c>
       <c r="N48" s="2">
         <v>186.10993949594362</v>
       </c>
       <c r="O48" s="2">
-        <v>184.6145769693601</v>
+        <v>184.61457696936009</v>
       </c>
       <c r="P48" s="2">
         <v>185.74282273975103</v>
       </c>
     </row>
-    <row r="49" ht="12.75" customHeight="1">
+    <row r="49" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>15</v>
       </c>
@@ -4173,31 +4190,31 @@
         <v>23</v>
       </c>
       <c r="F49" s="2">
-        <v>65.969487141</v>
+        <v>65.969487141000002</v>
       </c>
       <c r="G49" s="2">
         <v>118.2314264865</v>
       </c>
       <c r="H49" s="2">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="I49" s="2">
-        <v>95.6540007745</v>
+        <v>95.654000774500005</v>
       </c>
       <c r="J49" s="2">
         <v>102.6888773079</v>
       </c>
       <c r="K49" s="2">
-        <v>110.2376699338</v>
+        <v>110.23766993380001</v>
       </c>
       <c r="L49" s="2">
-        <v>106.5356213019</v>
+        <v>106.53562130189999</v>
       </c>
       <c r="M49" s="2">
-        <v>98.2129365982</v>
+        <v>98.212936598200002</v>
       </c>
       <c r="N49" s="2">
-        <v>117.3702496525</v>
+        <v>117.37024965249999</v>
       </c>
       <c r="O49" s="2" t="s">
         <v>23</v>
@@ -4206,7 +4223,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="50" ht="12.75" customHeight="1">
+    <row r="50" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>15</v>
       </c>
@@ -4256,7 +4273,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="51" ht="12.75" customHeight="1">
+    <row r="51" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>15</v>
       </c>
@@ -4306,7 +4323,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="52" ht="12.75" customHeight="1">
+    <row r="52" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>15</v>
       </c>
@@ -4320,43 +4337,43 @@
         <v>119</v>
       </c>
       <c r="E52" s="2">
-        <v>64939.0</v>
+        <v>64939</v>
       </c>
       <c r="F52" s="2">
-        <v>131735.0</v>
+        <v>131735</v>
       </c>
       <c r="G52" s="2">
-        <v>-14954.0</v>
+        <v>-14954</v>
       </c>
       <c r="H52" s="2">
-        <v>-14154.0</v>
+        <v>-14154</v>
       </c>
       <c r="I52" s="2">
-        <v>-13520.0</v>
+        <v>-13520</v>
       </c>
       <c r="J52" s="2">
-        <v>-12895.0</v>
+        <v>-12895</v>
       </c>
       <c r="K52" s="2">
-        <v>-8582.0</v>
+        <v>-8582</v>
       </c>
       <c r="L52" s="2">
-        <v>-4466.0</v>
+        <v>-4466</v>
       </c>
       <c r="M52" s="2">
-        <v>-2762.0</v>
+        <v>-2762</v>
       </c>
       <c r="N52" s="2">
-        <v>-2762.0</v>
+        <v>-2762</v>
       </c>
       <c r="O52" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="P52" s="2">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="53" ht="12.75" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>15</v>
       </c>
@@ -4406,7 +4423,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="54" ht="12.75" customHeight="1">
+    <row r="54" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>15</v>
       </c>
@@ -4420,43 +4437,43 @@
         <v>123</v>
       </c>
       <c r="E54" s="2">
-        <v>-1.1582E8</v>
+        <v>-115820000</v>
       </c>
       <c r="F54" s="2">
-        <v>-5.0633E8</v>
+        <v>-506330000</v>
       </c>
       <c r="G54" s="2">
-        <v>1.107153702E10</v>
+        <v>11071537020</v>
       </c>
       <c r="H54" s="2">
-        <v>8.55090185E9</v>
+        <v>8550901850</v>
       </c>
       <c r="I54" s="2">
-        <v>9.604773E9</v>
+        <v>9604773000</v>
       </c>
       <c r="J54" s="2">
-        <v>1.0354223E10</v>
+        <v>10354223000</v>
       </c>
       <c r="K54" s="2">
-        <v>1.0385286E10</v>
+        <v>10385286000</v>
       </c>
       <c r="L54" s="2">
-        <v>1.787466E10</v>
+        <v>17874660000</v>
       </c>
       <c r="M54" s="2">
-        <v>1.988447E10</v>
+        <v>19884470000</v>
       </c>
       <c r="N54" s="2">
-        <v>2.066712E10</v>
+        <v>20667120000</v>
       </c>
       <c r="O54" s="2">
-        <v>2.273656E10</v>
+        <v>22736560000</v>
       </c>
       <c r="P54" s="2">
-        <v>3.068754E10</v>
-      </c>
-    </row>
-    <row r="55" ht="12.75" customHeight="1">
+        <v>30687540000</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>15</v>
       </c>
@@ -4470,7 +4487,7 @@
         <v>125</v>
       </c>
       <c r="E55" s="2">
-        <v>3539999.96185303</v>
+        <v>3539999.9618530301</v>
       </c>
       <c r="F55" s="2">
         <v>3200000.04768372</v>
@@ -4506,994 +4523,990 @@
         <v>23</v>
       </c>
     </row>
-    <row r="56" ht="12.75" customHeight="1">
+    <row r="56" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56" s="1"/>
       <c r="D56" s="1"/>
     </row>
-    <row r="57" ht="12.75" customHeight="1">
+    <row r="57" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B57" s="1"/>
       <c r="D57" s="1"/>
     </row>
-    <row r="58" ht="12.75" customHeight="1">
+    <row r="58" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B58" s="1"/>
       <c r="D58" s="1"/>
     </row>
-    <row r="59" ht="12.75" customHeight="1">
+    <row r="59" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>126</v>
       </c>
       <c r="B59" s="1"/>
       <c r="D59" s="1"/>
     </row>
-    <row r="60" ht="12.75" customHeight="1">
+    <row r="60" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="61" ht="12.75" customHeight="1"/>
-    <row r="62" ht="12.75" customHeight="1"/>
-    <row r="63" ht="12.75" customHeight="1"/>
-    <row r="64" ht="12.75" customHeight="1"/>
-    <row r="65" ht="12.75" customHeight="1"/>
-    <row r="66" ht="12.75" customHeight="1"/>
-    <row r="67" ht="12.75" customHeight="1"/>
-    <row r="68" ht="12.75" customHeight="1"/>
-    <row r="69" ht="12.75" customHeight="1"/>
-    <row r="70" ht="12.75" customHeight="1"/>
-    <row r="71" ht="12.75" customHeight="1"/>
-    <row r="72" ht="12.75" customHeight="1"/>
-    <row r="73" ht="12.75" customHeight="1"/>
-    <row r="74" ht="12.75" customHeight="1"/>
-    <row r="75" ht="12.75" customHeight="1"/>
-    <row r="76" ht="12.75" customHeight="1"/>
-    <row r="77" ht="12.75" customHeight="1"/>
-    <row r="78" ht="12.75" customHeight="1"/>
-    <row r="79" ht="12.75" customHeight="1"/>
-    <row r="80" ht="12.75" customHeight="1"/>
-    <row r="81" ht="12.75" customHeight="1"/>
-    <row r="82" ht="12.75" customHeight="1"/>
-    <row r="83" ht="12.75" customHeight="1"/>
-    <row r="84" ht="12.75" customHeight="1"/>
-    <row r="85" ht="12.75" customHeight="1"/>
-    <row r="86" ht="12.75" customHeight="1"/>
-    <row r="87" ht="12.75" customHeight="1"/>
-    <row r="88" ht="12.75" customHeight="1"/>
-    <row r="89" ht="12.75" customHeight="1"/>
-    <row r="90" ht="12.75" customHeight="1"/>
-    <row r="91" ht="12.75" customHeight="1"/>
-    <row r="92" ht="12.75" customHeight="1"/>
-    <row r="93" ht="12.75" customHeight="1"/>
-    <row r="94" ht="12.75" customHeight="1"/>
-    <row r="95" ht="12.75" customHeight="1"/>
-    <row r="96" ht="12.75" customHeight="1"/>
-    <row r="97" ht="12.75" customHeight="1"/>
-    <row r="98" ht="12.75" customHeight="1"/>
-    <row r="99" ht="12.75" customHeight="1"/>
-    <row r="100" ht="12.75" customHeight="1"/>
-    <row r="101" ht="12.75" customHeight="1"/>
-    <row r="102" ht="12.75" customHeight="1"/>
-    <row r="103" ht="12.75" customHeight="1"/>
-    <row r="104" ht="12.75" customHeight="1"/>
-    <row r="105" ht="12.75" customHeight="1"/>
-    <row r="106" ht="12.75" customHeight="1"/>
-    <row r="107" ht="12.75" customHeight="1"/>
-    <row r="108" ht="12.75" customHeight="1"/>
-    <row r="109" ht="12.75" customHeight="1"/>
-    <row r="110" ht="12.75" customHeight="1"/>
-    <row r="111" ht="12.75" customHeight="1"/>
-    <row r="112" ht="12.75" customHeight="1"/>
-    <row r="113" ht="12.75" customHeight="1"/>
-    <row r="114" ht="12.75" customHeight="1"/>
-    <row r="115" ht="12.75" customHeight="1"/>
-    <row r="116" ht="12.75" customHeight="1"/>
-    <row r="117" ht="12.75" customHeight="1"/>
-    <row r="118" ht="12.75" customHeight="1"/>
-    <row r="119" ht="12.75" customHeight="1"/>
-    <row r="120" ht="12.75" customHeight="1"/>
-    <row r="121" ht="12.75" customHeight="1"/>
-    <row r="122" ht="12.75" customHeight="1"/>
-    <row r="123" ht="12.75" customHeight="1"/>
-    <row r="124" ht="12.75" customHeight="1"/>
-    <row r="125" ht="12.75" customHeight="1"/>
-    <row r="126" ht="12.75" customHeight="1"/>
-    <row r="127" ht="12.75" customHeight="1"/>
-    <row r="128" ht="12.75" customHeight="1"/>
-    <row r="129" ht="12.75" customHeight="1"/>
-    <row r="130" ht="12.75" customHeight="1"/>
-    <row r="131" ht="12.75" customHeight="1"/>
-    <row r="132" ht="12.75" customHeight="1"/>
-    <row r="133" ht="12.75" customHeight="1"/>
-    <row r="134" ht="12.75" customHeight="1"/>
-    <row r="135" ht="12.75" customHeight="1"/>
-    <row r="136" ht="12.75" customHeight="1"/>
-    <row r="137" ht="12.75" customHeight="1"/>
-    <row r="138" ht="12.75" customHeight="1"/>
-    <row r="139" ht="12.75" customHeight="1"/>
-    <row r="140" ht="12.75" customHeight="1"/>
-    <row r="141" ht="12.75" customHeight="1"/>
-    <row r="142" ht="12.75" customHeight="1"/>
-    <row r="143" ht="12.75" customHeight="1"/>
-    <row r="144" ht="12.75" customHeight="1"/>
-    <row r="145" ht="12.75" customHeight="1"/>
-    <row r="146" ht="12.75" customHeight="1"/>
-    <row r="147" ht="12.75" customHeight="1"/>
-    <row r="148" ht="12.75" customHeight="1"/>
-    <row r="149" ht="12.75" customHeight="1"/>
-    <row r="150" ht="12.75" customHeight="1"/>
-    <row r="151" ht="12.75" customHeight="1"/>
-    <row r="152" ht="12.75" customHeight="1"/>
-    <row r="153" ht="12.75" customHeight="1"/>
-    <row r="154" ht="12.75" customHeight="1"/>
-    <row r="155" ht="12.75" customHeight="1"/>
-    <row r="156" ht="12.75" customHeight="1"/>
-    <row r="157" ht="12.75" customHeight="1"/>
-    <row r="158" ht="12.75" customHeight="1"/>
-    <row r="159" ht="12.75" customHeight="1"/>
-    <row r="160" ht="12.75" customHeight="1"/>
-    <row r="161" ht="12.75" customHeight="1"/>
-    <row r="162" ht="12.75" customHeight="1"/>
-    <row r="163" ht="12.75" customHeight="1"/>
-    <row r="164" ht="12.75" customHeight="1"/>
-    <row r="165" ht="12.75" customHeight="1"/>
-    <row r="166" ht="12.75" customHeight="1"/>
-    <row r="167" ht="12.75" customHeight="1"/>
-    <row r="168" ht="12.75" customHeight="1"/>
-    <row r="169" ht="12.75" customHeight="1"/>
-    <row r="170" ht="12.75" customHeight="1"/>
-    <row r="171" ht="12.75" customHeight="1"/>
-    <row r="172" ht="12.75" customHeight="1"/>
-    <row r="173" ht="12.75" customHeight="1"/>
-    <row r="174" ht="12.75" customHeight="1"/>
-    <row r="175" ht="12.75" customHeight="1"/>
-    <row r="176" ht="12.75" customHeight="1"/>
-    <row r="177" ht="12.75" customHeight="1"/>
-    <row r="178" ht="12.75" customHeight="1"/>
-    <row r="179" ht="12.75" customHeight="1"/>
-    <row r="180" ht="12.75" customHeight="1"/>
-    <row r="181" ht="12.75" customHeight="1"/>
-    <row r="182" ht="12.75" customHeight="1"/>
-    <row r="183" ht="12.75" customHeight="1"/>
-    <row r="184" ht="12.75" customHeight="1"/>
-    <row r="185" ht="12.75" customHeight="1"/>
-    <row r="186" ht="12.75" customHeight="1"/>
-    <row r="187" ht="12.75" customHeight="1"/>
-    <row r="188" ht="12.75" customHeight="1"/>
-    <row r="189" ht="12.75" customHeight="1"/>
-    <row r="190" ht="12.75" customHeight="1"/>
-    <row r="191" ht="12.75" customHeight="1"/>
-    <row r="192" ht="12.75" customHeight="1"/>
-    <row r="193" ht="12.75" customHeight="1"/>
-    <row r="194" ht="12.75" customHeight="1"/>
-    <row r="195" ht="12.75" customHeight="1"/>
-    <row r="196" ht="12.75" customHeight="1"/>
-    <row r="197" ht="12.75" customHeight="1"/>
-    <row r="198" ht="12.75" customHeight="1"/>
-    <row r="199" ht="12.75" customHeight="1"/>
-    <row r="200" ht="12.75" customHeight="1"/>
-    <row r="201" ht="12.75" customHeight="1"/>
-    <row r="202" ht="12.75" customHeight="1"/>
-    <row r="203" ht="12.75" customHeight="1"/>
-    <row r="204" ht="12.75" customHeight="1"/>
-    <row r="205" ht="12.75" customHeight="1"/>
-    <row r="206" ht="12.75" customHeight="1"/>
-    <row r="207" ht="12.75" customHeight="1"/>
-    <row r="208" ht="12.75" customHeight="1"/>
-    <row r="209" ht="12.75" customHeight="1"/>
-    <row r="210" ht="12.75" customHeight="1"/>
-    <row r="211" ht="12.75" customHeight="1"/>
-    <row r="212" ht="12.75" customHeight="1"/>
-    <row r="213" ht="12.75" customHeight="1"/>
-    <row r="214" ht="12.75" customHeight="1"/>
-    <row r="215" ht="12.75" customHeight="1"/>
-    <row r="216" ht="12.75" customHeight="1"/>
-    <row r="217" ht="12.75" customHeight="1"/>
-    <row r="218" ht="12.75" customHeight="1"/>
-    <row r="219" ht="12.75" customHeight="1"/>
-    <row r="220" ht="12.75" customHeight="1"/>
-    <row r="221" ht="12.75" customHeight="1"/>
-    <row r="222" ht="12.75" customHeight="1"/>
-    <row r="223" ht="12.75" customHeight="1"/>
-    <row r="224" ht="12.75" customHeight="1"/>
-    <row r="225" ht="12.75" customHeight="1"/>
-    <row r="226" ht="12.75" customHeight="1"/>
-    <row r="227" ht="12.75" customHeight="1"/>
-    <row r="228" ht="12.75" customHeight="1"/>
-    <row r="229" ht="12.75" customHeight="1"/>
-    <row r="230" ht="12.75" customHeight="1"/>
-    <row r="231" ht="12.75" customHeight="1"/>
-    <row r="232" ht="12.75" customHeight="1"/>
-    <row r="233" ht="12.75" customHeight="1"/>
-    <row r="234" ht="12.75" customHeight="1"/>
-    <row r="235" ht="12.75" customHeight="1"/>
-    <row r="236" ht="12.75" customHeight="1"/>
-    <row r="237" ht="12.75" customHeight="1"/>
-    <row r="238" ht="12.75" customHeight="1"/>
-    <row r="239" ht="12.75" customHeight="1"/>
-    <row r="240" ht="12.75" customHeight="1"/>
-    <row r="241" ht="12.75" customHeight="1"/>
-    <row r="242" ht="12.75" customHeight="1"/>
-    <row r="243" ht="12.75" customHeight="1"/>
-    <row r="244" ht="12.75" customHeight="1"/>
-    <row r="245" ht="12.75" customHeight="1"/>
-    <row r="246" ht="12.75" customHeight="1"/>
-    <row r="247" ht="12.75" customHeight="1"/>
-    <row r="248" ht="12.75" customHeight="1"/>
-    <row r="249" ht="12.75" customHeight="1"/>
-    <row r="250" ht="12.75" customHeight="1"/>
-    <row r="251" ht="12.75" customHeight="1"/>
-    <row r="252" ht="12.75" customHeight="1"/>
-    <row r="253" ht="12.75" customHeight="1"/>
-    <row r="254" ht="12.75" customHeight="1"/>
-    <row r="255" ht="12.75" customHeight="1"/>
-    <row r="256" ht="12.75" customHeight="1"/>
-    <row r="257" ht="12.75" customHeight="1"/>
-    <row r="258" ht="12.75" customHeight="1"/>
-    <row r="259" ht="12.75" customHeight="1"/>
-    <row r="260" ht="12.75" customHeight="1"/>
-    <row r="261" ht="12.75" customHeight="1"/>
-    <row r="262" ht="12.75" customHeight="1"/>
-    <row r="263" ht="12.75" customHeight="1"/>
-    <row r="264" ht="12.75" customHeight="1"/>
-    <row r="265" ht="12.75" customHeight="1"/>
-    <row r="266" ht="12.75" customHeight="1"/>
-    <row r="267" ht="12.75" customHeight="1"/>
-    <row r="268" ht="12.75" customHeight="1"/>
-    <row r="269" ht="12.75" customHeight="1"/>
-    <row r="270" ht="12.75" customHeight="1"/>
-    <row r="271" ht="12.75" customHeight="1"/>
-    <row r="272" ht="12.75" customHeight="1"/>
-    <row r="273" ht="12.75" customHeight="1"/>
-    <row r="274" ht="12.75" customHeight="1"/>
-    <row r="275" ht="12.75" customHeight="1"/>
-    <row r="276" ht="12.75" customHeight="1"/>
-    <row r="277" ht="12.75" customHeight="1"/>
-    <row r="278" ht="12.75" customHeight="1"/>
-    <row r="279" ht="12.75" customHeight="1"/>
-    <row r="280" ht="12.75" customHeight="1"/>
-    <row r="281" ht="12.75" customHeight="1"/>
-    <row r="282" ht="12.75" customHeight="1"/>
-    <row r="283" ht="12.75" customHeight="1"/>
-    <row r="284" ht="12.75" customHeight="1"/>
-    <row r="285" ht="12.75" customHeight="1"/>
-    <row r="286" ht="12.75" customHeight="1"/>
-    <row r="287" ht="12.75" customHeight="1"/>
-    <row r="288" ht="12.75" customHeight="1"/>
-    <row r="289" ht="12.75" customHeight="1"/>
-    <row r="290" ht="12.75" customHeight="1"/>
-    <row r="291" ht="12.75" customHeight="1"/>
-    <row r="292" ht="12.75" customHeight="1"/>
-    <row r="293" ht="12.75" customHeight="1"/>
-    <row r="294" ht="12.75" customHeight="1"/>
-    <row r="295" ht="12.75" customHeight="1"/>
-    <row r="296" ht="12.75" customHeight="1"/>
-    <row r="297" ht="12.75" customHeight="1"/>
-    <row r="298" ht="12.75" customHeight="1"/>
-    <row r="299" ht="12.75" customHeight="1"/>
-    <row r="300" ht="12.75" customHeight="1"/>
-    <row r="301" ht="12.75" customHeight="1"/>
-    <row r="302" ht="12.75" customHeight="1"/>
-    <row r="303" ht="12.75" customHeight="1"/>
-    <row r="304" ht="12.75" customHeight="1"/>
-    <row r="305" ht="12.75" customHeight="1"/>
-    <row r="306" ht="12.75" customHeight="1"/>
-    <row r="307" ht="12.75" customHeight="1"/>
-    <row r="308" ht="12.75" customHeight="1"/>
-    <row r="309" ht="12.75" customHeight="1"/>
-    <row r="310" ht="12.75" customHeight="1"/>
-    <row r="311" ht="12.75" customHeight="1"/>
-    <row r="312" ht="12.75" customHeight="1"/>
-    <row r="313" ht="12.75" customHeight="1"/>
-    <row r="314" ht="12.75" customHeight="1"/>
-    <row r="315" ht="12.75" customHeight="1"/>
-    <row r="316" ht="12.75" customHeight="1"/>
-    <row r="317" ht="12.75" customHeight="1"/>
-    <row r="318" ht="12.75" customHeight="1"/>
-    <row r="319" ht="12.75" customHeight="1"/>
-    <row r="320" ht="12.75" customHeight="1"/>
-    <row r="321" ht="12.75" customHeight="1"/>
-    <row r="322" ht="12.75" customHeight="1"/>
-    <row r="323" ht="12.75" customHeight="1"/>
-    <row r="324" ht="12.75" customHeight="1"/>
-    <row r="325" ht="12.75" customHeight="1"/>
-    <row r="326" ht="12.75" customHeight="1"/>
-    <row r="327" ht="12.75" customHeight="1"/>
-    <row r="328" ht="12.75" customHeight="1"/>
-    <row r="329" ht="12.75" customHeight="1"/>
-    <row r="330" ht="12.75" customHeight="1"/>
-    <row r="331" ht="12.75" customHeight="1"/>
-    <row r="332" ht="12.75" customHeight="1"/>
-    <row r="333" ht="12.75" customHeight="1"/>
-    <row r="334" ht="12.75" customHeight="1"/>
-    <row r="335" ht="12.75" customHeight="1"/>
-    <row r="336" ht="12.75" customHeight="1"/>
-    <row r="337" ht="12.75" customHeight="1"/>
-    <row r="338" ht="12.75" customHeight="1"/>
-    <row r="339" ht="12.75" customHeight="1"/>
-    <row r="340" ht="12.75" customHeight="1"/>
-    <row r="341" ht="12.75" customHeight="1"/>
-    <row r="342" ht="12.75" customHeight="1"/>
-    <row r="343" ht="12.75" customHeight="1"/>
-    <row r="344" ht="12.75" customHeight="1"/>
-    <row r="345" ht="12.75" customHeight="1"/>
-    <row r="346" ht="12.75" customHeight="1"/>
-    <row r="347" ht="12.75" customHeight="1"/>
-    <row r="348" ht="12.75" customHeight="1"/>
-    <row r="349" ht="12.75" customHeight="1"/>
-    <row r="350" ht="12.75" customHeight="1"/>
-    <row r="351" ht="12.75" customHeight="1"/>
-    <row r="352" ht="12.75" customHeight="1"/>
-    <row r="353" ht="12.75" customHeight="1"/>
-    <row r="354" ht="12.75" customHeight="1"/>
-    <row r="355" ht="12.75" customHeight="1"/>
-    <row r="356" ht="12.75" customHeight="1"/>
-    <row r="357" ht="12.75" customHeight="1"/>
-    <row r="358" ht="12.75" customHeight="1"/>
-    <row r="359" ht="12.75" customHeight="1"/>
-    <row r="360" ht="12.75" customHeight="1"/>
-    <row r="361" ht="12.75" customHeight="1"/>
-    <row r="362" ht="12.75" customHeight="1"/>
-    <row r="363" ht="12.75" customHeight="1"/>
-    <row r="364" ht="12.75" customHeight="1"/>
-    <row r="365" ht="12.75" customHeight="1"/>
-    <row r="366" ht="12.75" customHeight="1"/>
-    <row r="367" ht="12.75" customHeight="1"/>
-    <row r="368" ht="12.75" customHeight="1"/>
-    <row r="369" ht="12.75" customHeight="1"/>
-    <row r="370" ht="12.75" customHeight="1"/>
-    <row r="371" ht="12.75" customHeight="1"/>
-    <row r="372" ht="12.75" customHeight="1"/>
-    <row r="373" ht="12.75" customHeight="1"/>
-    <row r="374" ht="12.75" customHeight="1"/>
-    <row r="375" ht="12.75" customHeight="1"/>
-    <row r="376" ht="12.75" customHeight="1"/>
-    <row r="377" ht="12.75" customHeight="1"/>
-    <row r="378" ht="12.75" customHeight="1"/>
-    <row r="379" ht="12.75" customHeight="1"/>
-    <row r="380" ht="12.75" customHeight="1"/>
-    <row r="381" ht="12.75" customHeight="1"/>
-    <row r="382" ht="12.75" customHeight="1"/>
-    <row r="383" ht="12.75" customHeight="1"/>
-    <row r="384" ht="12.75" customHeight="1"/>
-    <row r="385" ht="12.75" customHeight="1"/>
-    <row r="386" ht="12.75" customHeight="1"/>
-    <row r="387" ht="12.75" customHeight="1"/>
-    <row r="388" ht="12.75" customHeight="1"/>
-    <row r="389" ht="12.75" customHeight="1"/>
-    <row r="390" ht="12.75" customHeight="1"/>
-    <row r="391" ht="12.75" customHeight="1"/>
-    <row r="392" ht="12.75" customHeight="1"/>
-    <row r="393" ht="12.75" customHeight="1"/>
-    <row r="394" ht="12.75" customHeight="1"/>
-    <row r="395" ht="12.75" customHeight="1"/>
-    <row r="396" ht="12.75" customHeight="1"/>
-    <row r="397" ht="12.75" customHeight="1"/>
-    <row r="398" ht="12.75" customHeight="1"/>
-    <row r="399" ht="12.75" customHeight="1"/>
-    <row r="400" ht="12.75" customHeight="1"/>
-    <row r="401" ht="12.75" customHeight="1"/>
-    <row r="402" ht="12.75" customHeight="1"/>
-    <row r="403" ht="12.75" customHeight="1"/>
-    <row r="404" ht="12.75" customHeight="1"/>
-    <row r="405" ht="12.75" customHeight="1"/>
-    <row r="406" ht="12.75" customHeight="1"/>
-    <row r="407" ht="12.75" customHeight="1"/>
-    <row r="408" ht="12.75" customHeight="1"/>
-    <row r="409" ht="12.75" customHeight="1"/>
-    <row r="410" ht="12.75" customHeight="1"/>
-    <row r="411" ht="12.75" customHeight="1"/>
-    <row r="412" ht="12.75" customHeight="1"/>
-    <row r="413" ht="12.75" customHeight="1"/>
-    <row r="414" ht="12.75" customHeight="1"/>
-    <row r="415" ht="12.75" customHeight="1"/>
-    <row r="416" ht="12.75" customHeight="1"/>
-    <row r="417" ht="12.75" customHeight="1"/>
-    <row r="418" ht="12.75" customHeight="1"/>
-    <row r="419" ht="12.75" customHeight="1"/>
-    <row r="420" ht="12.75" customHeight="1"/>
-    <row r="421" ht="12.75" customHeight="1"/>
-    <row r="422" ht="12.75" customHeight="1"/>
-    <row r="423" ht="12.75" customHeight="1"/>
-    <row r="424" ht="12.75" customHeight="1"/>
-    <row r="425" ht="12.75" customHeight="1"/>
-    <row r="426" ht="12.75" customHeight="1"/>
-    <row r="427" ht="12.75" customHeight="1"/>
-    <row r="428" ht="12.75" customHeight="1"/>
-    <row r="429" ht="12.75" customHeight="1"/>
-    <row r="430" ht="12.75" customHeight="1"/>
-    <row r="431" ht="12.75" customHeight="1"/>
-    <row r="432" ht="12.75" customHeight="1"/>
-    <row r="433" ht="12.75" customHeight="1"/>
-    <row r="434" ht="12.75" customHeight="1"/>
-    <row r="435" ht="12.75" customHeight="1"/>
-    <row r="436" ht="12.75" customHeight="1"/>
-    <row r="437" ht="12.75" customHeight="1"/>
-    <row r="438" ht="12.75" customHeight="1"/>
-    <row r="439" ht="12.75" customHeight="1"/>
-    <row r="440" ht="12.75" customHeight="1"/>
-    <row r="441" ht="12.75" customHeight="1"/>
-    <row r="442" ht="12.75" customHeight="1"/>
-    <row r="443" ht="12.75" customHeight="1"/>
-    <row r="444" ht="12.75" customHeight="1"/>
-    <row r="445" ht="12.75" customHeight="1"/>
-    <row r="446" ht="12.75" customHeight="1"/>
-    <row r="447" ht="12.75" customHeight="1"/>
-    <row r="448" ht="12.75" customHeight="1"/>
-    <row r="449" ht="12.75" customHeight="1"/>
-    <row r="450" ht="12.75" customHeight="1"/>
-    <row r="451" ht="12.75" customHeight="1"/>
-    <row r="452" ht="12.75" customHeight="1"/>
-    <row r="453" ht="12.75" customHeight="1"/>
-    <row r="454" ht="12.75" customHeight="1"/>
-    <row r="455" ht="12.75" customHeight="1"/>
-    <row r="456" ht="12.75" customHeight="1"/>
-    <row r="457" ht="12.75" customHeight="1"/>
-    <row r="458" ht="12.75" customHeight="1"/>
-    <row r="459" ht="12.75" customHeight="1"/>
-    <row r="460" ht="12.75" customHeight="1"/>
-    <row r="461" ht="12.75" customHeight="1"/>
-    <row r="462" ht="12.75" customHeight="1"/>
-    <row r="463" ht="12.75" customHeight="1"/>
-    <row r="464" ht="12.75" customHeight="1"/>
-    <row r="465" ht="12.75" customHeight="1"/>
-    <row r="466" ht="12.75" customHeight="1"/>
-    <row r="467" ht="12.75" customHeight="1"/>
-    <row r="468" ht="12.75" customHeight="1"/>
-    <row r="469" ht="12.75" customHeight="1"/>
-    <row r="470" ht="12.75" customHeight="1"/>
-    <row r="471" ht="12.75" customHeight="1"/>
-    <row r="472" ht="12.75" customHeight="1"/>
-    <row r="473" ht="12.75" customHeight="1"/>
-    <row r="474" ht="12.75" customHeight="1"/>
-    <row r="475" ht="12.75" customHeight="1"/>
-    <row r="476" ht="12.75" customHeight="1"/>
-    <row r="477" ht="12.75" customHeight="1"/>
-    <row r="478" ht="12.75" customHeight="1"/>
-    <row r="479" ht="12.75" customHeight="1"/>
-    <row r="480" ht="12.75" customHeight="1"/>
-    <row r="481" ht="12.75" customHeight="1"/>
-    <row r="482" ht="12.75" customHeight="1"/>
-    <row r="483" ht="12.75" customHeight="1"/>
-    <row r="484" ht="12.75" customHeight="1"/>
-    <row r="485" ht="12.75" customHeight="1"/>
-    <row r="486" ht="12.75" customHeight="1"/>
-    <row r="487" ht="12.75" customHeight="1"/>
-    <row r="488" ht="12.75" customHeight="1"/>
-    <row r="489" ht="12.75" customHeight="1"/>
-    <row r="490" ht="12.75" customHeight="1"/>
-    <row r="491" ht="12.75" customHeight="1"/>
-    <row r="492" ht="12.75" customHeight="1"/>
-    <row r="493" ht="12.75" customHeight="1"/>
-    <row r="494" ht="12.75" customHeight="1"/>
-    <row r="495" ht="12.75" customHeight="1"/>
-    <row r="496" ht="12.75" customHeight="1"/>
-    <row r="497" ht="12.75" customHeight="1"/>
-    <row r="498" ht="12.75" customHeight="1"/>
-    <row r="499" ht="12.75" customHeight="1"/>
-    <row r="500" ht="12.75" customHeight="1"/>
-    <row r="501" ht="12.75" customHeight="1"/>
-    <row r="502" ht="12.75" customHeight="1"/>
-    <row r="503" ht="12.75" customHeight="1"/>
-    <row r="504" ht="12.75" customHeight="1"/>
-    <row r="505" ht="12.75" customHeight="1"/>
-    <row r="506" ht="12.75" customHeight="1"/>
-    <row r="507" ht="12.75" customHeight="1"/>
-    <row r="508" ht="12.75" customHeight="1"/>
-    <row r="509" ht="12.75" customHeight="1"/>
-    <row r="510" ht="12.75" customHeight="1"/>
-    <row r="511" ht="12.75" customHeight="1"/>
-    <row r="512" ht="12.75" customHeight="1"/>
-    <row r="513" ht="12.75" customHeight="1"/>
-    <row r="514" ht="12.75" customHeight="1"/>
-    <row r="515" ht="12.75" customHeight="1"/>
-    <row r="516" ht="12.75" customHeight="1"/>
-    <row r="517" ht="12.75" customHeight="1"/>
-    <row r="518" ht="12.75" customHeight="1"/>
-    <row r="519" ht="12.75" customHeight="1"/>
-    <row r="520" ht="12.75" customHeight="1"/>
-    <row r="521" ht="12.75" customHeight="1"/>
-    <row r="522" ht="12.75" customHeight="1"/>
-    <row r="523" ht="12.75" customHeight="1"/>
-    <row r="524" ht="12.75" customHeight="1"/>
-    <row r="525" ht="12.75" customHeight="1"/>
-    <row r="526" ht="12.75" customHeight="1"/>
-    <row r="527" ht="12.75" customHeight="1"/>
-    <row r="528" ht="12.75" customHeight="1"/>
-    <row r="529" ht="12.75" customHeight="1"/>
-    <row r="530" ht="12.75" customHeight="1"/>
-    <row r="531" ht="12.75" customHeight="1"/>
-    <row r="532" ht="12.75" customHeight="1"/>
-    <row r="533" ht="12.75" customHeight="1"/>
-    <row r="534" ht="12.75" customHeight="1"/>
-    <row r="535" ht="12.75" customHeight="1"/>
-    <row r="536" ht="12.75" customHeight="1"/>
-    <row r="537" ht="12.75" customHeight="1"/>
-    <row r="538" ht="12.75" customHeight="1"/>
-    <row r="539" ht="12.75" customHeight="1"/>
-    <row r="540" ht="12.75" customHeight="1"/>
-    <row r="541" ht="12.75" customHeight="1"/>
-    <row r="542" ht="12.75" customHeight="1"/>
-    <row r="543" ht="12.75" customHeight="1"/>
-    <row r="544" ht="12.75" customHeight="1"/>
-    <row r="545" ht="12.75" customHeight="1"/>
-    <row r="546" ht="12.75" customHeight="1"/>
-    <row r="547" ht="12.75" customHeight="1"/>
-    <row r="548" ht="12.75" customHeight="1"/>
-    <row r="549" ht="12.75" customHeight="1"/>
-    <row r="550" ht="12.75" customHeight="1"/>
-    <row r="551" ht="12.75" customHeight="1"/>
-    <row r="552" ht="12.75" customHeight="1"/>
-    <row r="553" ht="12.75" customHeight="1"/>
-    <row r="554" ht="12.75" customHeight="1"/>
-    <row r="555" ht="12.75" customHeight="1"/>
-    <row r="556" ht="12.75" customHeight="1"/>
-    <row r="557" ht="12.75" customHeight="1"/>
-    <row r="558" ht="12.75" customHeight="1"/>
-    <row r="559" ht="12.75" customHeight="1"/>
-    <row r="560" ht="12.75" customHeight="1"/>
-    <row r="561" ht="12.75" customHeight="1"/>
-    <row r="562" ht="12.75" customHeight="1"/>
-    <row r="563" ht="12.75" customHeight="1"/>
-    <row r="564" ht="12.75" customHeight="1"/>
-    <row r="565" ht="12.75" customHeight="1"/>
-    <row r="566" ht="12.75" customHeight="1"/>
-    <row r="567" ht="12.75" customHeight="1"/>
-    <row r="568" ht="12.75" customHeight="1"/>
-    <row r="569" ht="12.75" customHeight="1"/>
-    <row r="570" ht="12.75" customHeight="1"/>
-    <row r="571" ht="12.75" customHeight="1"/>
-    <row r="572" ht="12.75" customHeight="1"/>
-    <row r="573" ht="12.75" customHeight="1"/>
-    <row r="574" ht="12.75" customHeight="1"/>
-    <row r="575" ht="12.75" customHeight="1"/>
-    <row r="576" ht="12.75" customHeight="1"/>
-    <row r="577" ht="12.75" customHeight="1"/>
-    <row r="578" ht="12.75" customHeight="1"/>
-    <row r="579" ht="12.75" customHeight="1"/>
-    <row r="580" ht="12.75" customHeight="1"/>
-    <row r="581" ht="12.75" customHeight="1"/>
-    <row r="582" ht="12.75" customHeight="1"/>
-    <row r="583" ht="12.75" customHeight="1"/>
-    <row r="584" ht="12.75" customHeight="1"/>
-    <row r="585" ht="12.75" customHeight="1"/>
-    <row r="586" ht="12.75" customHeight="1"/>
-    <row r="587" ht="12.75" customHeight="1"/>
-    <row r="588" ht="12.75" customHeight="1"/>
-    <row r="589" ht="12.75" customHeight="1"/>
-    <row r="590" ht="12.75" customHeight="1"/>
-    <row r="591" ht="12.75" customHeight="1"/>
-    <row r="592" ht="12.75" customHeight="1"/>
-    <row r="593" ht="12.75" customHeight="1"/>
-    <row r="594" ht="12.75" customHeight="1"/>
-    <row r="595" ht="12.75" customHeight="1"/>
-    <row r="596" ht="12.75" customHeight="1"/>
-    <row r="597" ht="12.75" customHeight="1"/>
-    <row r="598" ht="12.75" customHeight="1"/>
-    <row r="599" ht="12.75" customHeight="1"/>
-    <row r="600" ht="12.75" customHeight="1"/>
-    <row r="601" ht="12.75" customHeight="1"/>
-    <row r="602" ht="12.75" customHeight="1"/>
-    <row r="603" ht="12.75" customHeight="1"/>
-    <row r="604" ht="12.75" customHeight="1"/>
-    <row r="605" ht="12.75" customHeight="1"/>
-    <row r="606" ht="12.75" customHeight="1"/>
-    <row r="607" ht="12.75" customHeight="1"/>
-    <row r="608" ht="12.75" customHeight="1"/>
-    <row r="609" ht="12.75" customHeight="1"/>
-    <row r="610" ht="12.75" customHeight="1"/>
-    <row r="611" ht="12.75" customHeight="1"/>
-    <row r="612" ht="12.75" customHeight="1"/>
-    <row r="613" ht="12.75" customHeight="1"/>
-    <row r="614" ht="12.75" customHeight="1"/>
-    <row r="615" ht="12.75" customHeight="1"/>
-    <row r="616" ht="12.75" customHeight="1"/>
-    <row r="617" ht="12.75" customHeight="1"/>
-    <row r="618" ht="12.75" customHeight="1"/>
-    <row r="619" ht="12.75" customHeight="1"/>
-    <row r="620" ht="12.75" customHeight="1"/>
-    <row r="621" ht="12.75" customHeight="1"/>
-    <row r="622" ht="12.75" customHeight="1"/>
-    <row r="623" ht="12.75" customHeight="1"/>
-    <row r="624" ht="12.75" customHeight="1"/>
-    <row r="625" ht="12.75" customHeight="1"/>
-    <row r="626" ht="12.75" customHeight="1"/>
-    <row r="627" ht="12.75" customHeight="1"/>
-    <row r="628" ht="12.75" customHeight="1"/>
-    <row r="629" ht="12.75" customHeight="1"/>
-    <row r="630" ht="12.75" customHeight="1"/>
-    <row r="631" ht="12.75" customHeight="1"/>
-    <row r="632" ht="12.75" customHeight="1"/>
-    <row r="633" ht="12.75" customHeight="1"/>
-    <row r="634" ht="12.75" customHeight="1"/>
-    <row r="635" ht="12.75" customHeight="1"/>
-    <row r="636" ht="12.75" customHeight="1"/>
-    <row r="637" ht="12.75" customHeight="1"/>
-    <row r="638" ht="12.75" customHeight="1"/>
-    <row r="639" ht="12.75" customHeight="1"/>
-    <row r="640" ht="12.75" customHeight="1"/>
-    <row r="641" ht="12.75" customHeight="1"/>
-    <row r="642" ht="12.75" customHeight="1"/>
-    <row r="643" ht="12.75" customHeight="1"/>
-    <row r="644" ht="12.75" customHeight="1"/>
-    <row r="645" ht="12.75" customHeight="1"/>
-    <row r="646" ht="12.75" customHeight="1"/>
-    <row r="647" ht="12.75" customHeight="1"/>
-    <row r="648" ht="12.75" customHeight="1"/>
-    <row r="649" ht="12.75" customHeight="1"/>
-    <row r="650" ht="12.75" customHeight="1"/>
-    <row r="651" ht="12.75" customHeight="1"/>
-    <row r="652" ht="12.75" customHeight="1"/>
-    <row r="653" ht="12.75" customHeight="1"/>
-    <row r="654" ht="12.75" customHeight="1"/>
-    <row r="655" ht="12.75" customHeight="1"/>
-    <row r="656" ht="12.75" customHeight="1"/>
-    <row r="657" ht="12.75" customHeight="1"/>
-    <row r="658" ht="12.75" customHeight="1"/>
-    <row r="659" ht="12.75" customHeight="1"/>
-    <row r="660" ht="12.75" customHeight="1"/>
-    <row r="661" ht="12.75" customHeight="1"/>
-    <row r="662" ht="12.75" customHeight="1"/>
-    <row r="663" ht="12.75" customHeight="1"/>
-    <row r="664" ht="12.75" customHeight="1"/>
-    <row r="665" ht="12.75" customHeight="1"/>
-    <row r="666" ht="12.75" customHeight="1"/>
-    <row r="667" ht="12.75" customHeight="1"/>
-    <row r="668" ht="12.75" customHeight="1"/>
-    <row r="669" ht="12.75" customHeight="1"/>
-    <row r="670" ht="12.75" customHeight="1"/>
-    <row r="671" ht="12.75" customHeight="1"/>
-    <row r="672" ht="12.75" customHeight="1"/>
-    <row r="673" ht="12.75" customHeight="1"/>
-    <row r="674" ht="12.75" customHeight="1"/>
-    <row r="675" ht="12.75" customHeight="1"/>
-    <row r="676" ht="12.75" customHeight="1"/>
-    <row r="677" ht="12.75" customHeight="1"/>
-    <row r="678" ht="12.75" customHeight="1"/>
-    <row r="679" ht="12.75" customHeight="1"/>
-    <row r="680" ht="12.75" customHeight="1"/>
-    <row r="681" ht="12.75" customHeight="1"/>
-    <row r="682" ht="12.75" customHeight="1"/>
-    <row r="683" ht="12.75" customHeight="1"/>
-    <row r="684" ht="12.75" customHeight="1"/>
-    <row r="685" ht="12.75" customHeight="1"/>
-    <row r="686" ht="12.75" customHeight="1"/>
-    <row r="687" ht="12.75" customHeight="1"/>
-    <row r="688" ht="12.75" customHeight="1"/>
-    <row r="689" ht="12.75" customHeight="1"/>
-    <row r="690" ht="12.75" customHeight="1"/>
-    <row r="691" ht="12.75" customHeight="1"/>
-    <row r="692" ht="12.75" customHeight="1"/>
-    <row r="693" ht="12.75" customHeight="1"/>
-    <row r="694" ht="12.75" customHeight="1"/>
-    <row r="695" ht="12.75" customHeight="1"/>
-    <row r="696" ht="12.75" customHeight="1"/>
-    <row r="697" ht="12.75" customHeight="1"/>
-    <row r="698" ht="12.75" customHeight="1"/>
-    <row r="699" ht="12.75" customHeight="1"/>
-    <row r="700" ht="12.75" customHeight="1"/>
-    <row r="701" ht="12.75" customHeight="1"/>
-    <row r="702" ht="12.75" customHeight="1"/>
-    <row r="703" ht="12.75" customHeight="1"/>
-    <row r="704" ht="12.75" customHeight="1"/>
-    <row r="705" ht="12.75" customHeight="1"/>
-    <row r="706" ht="12.75" customHeight="1"/>
-    <row r="707" ht="12.75" customHeight="1"/>
-    <row r="708" ht="12.75" customHeight="1"/>
-    <row r="709" ht="12.75" customHeight="1"/>
-    <row r="710" ht="12.75" customHeight="1"/>
-    <row r="711" ht="12.75" customHeight="1"/>
-    <row r="712" ht="12.75" customHeight="1"/>
-    <row r="713" ht="12.75" customHeight="1"/>
-    <row r="714" ht="12.75" customHeight="1"/>
-    <row r="715" ht="12.75" customHeight="1"/>
-    <row r="716" ht="12.75" customHeight="1"/>
-    <row r="717" ht="12.75" customHeight="1"/>
-    <row r="718" ht="12.75" customHeight="1"/>
-    <row r="719" ht="12.75" customHeight="1"/>
-    <row r="720" ht="12.75" customHeight="1"/>
-    <row r="721" ht="12.75" customHeight="1"/>
-    <row r="722" ht="12.75" customHeight="1"/>
-    <row r="723" ht="12.75" customHeight="1"/>
-    <row r="724" ht="12.75" customHeight="1"/>
-    <row r="725" ht="12.75" customHeight="1"/>
-    <row r="726" ht="12.75" customHeight="1"/>
-    <row r="727" ht="12.75" customHeight="1"/>
-    <row r="728" ht="12.75" customHeight="1"/>
-    <row r="729" ht="12.75" customHeight="1"/>
-    <row r="730" ht="12.75" customHeight="1"/>
-    <row r="731" ht="12.75" customHeight="1"/>
-    <row r="732" ht="12.75" customHeight="1"/>
-    <row r="733" ht="12.75" customHeight="1"/>
-    <row r="734" ht="12.75" customHeight="1"/>
-    <row r="735" ht="12.75" customHeight="1"/>
-    <row r="736" ht="12.75" customHeight="1"/>
-    <row r="737" ht="12.75" customHeight="1"/>
-    <row r="738" ht="12.75" customHeight="1"/>
-    <row r="739" ht="12.75" customHeight="1"/>
-    <row r="740" ht="12.75" customHeight="1"/>
-    <row r="741" ht="12.75" customHeight="1"/>
-    <row r="742" ht="12.75" customHeight="1"/>
-    <row r="743" ht="12.75" customHeight="1"/>
-    <row r="744" ht="12.75" customHeight="1"/>
-    <row r="745" ht="12.75" customHeight="1"/>
-    <row r="746" ht="12.75" customHeight="1"/>
-    <row r="747" ht="12.75" customHeight="1"/>
-    <row r="748" ht="12.75" customHeight="1"/>
-    <row r="749" ht="12.75" customHeight="1"/>
-    <row r="750" ht="12.75" customHeight="1"/>
-    <row r="751" ht="12.75" customHeight="1"/>
-    <row r="752" ht="12.75" customHeight="1"/>
-    <row r="753" ht="12.75" customHeight="1"/>
-    <row r="754" ht="12.75" customHeight="1"/>
-    <row r="755" ht="12.75" customHeight="1"/>
-    <row r="756" ht="12.75" customHeight="1"/>
-    <row r="757" ht="12.75" customHeight="1"/>
-    <row r="758" ht="12.75" customHeight="1"/>
-    <row r="759" ht="12.75" customHeight="1"/>
-    <row r="760" ht="12.75" customHeight="1"/>
-    <row r="761" ht="12.75" customHeight="1"/>
-    <row r="762" ht="12.75" customHeight="1"/>
-    <row r="763" ht="12.75" customHeight="1"/>
-    <row r="764" ht="12.75" customHeight="1"/>
-    <row r="765" ht="12.75" customHeight="1"/>
-    <row r="766" ht="12.75" customHeight="1"/>
-    <row r="767" ht="12.75" customHeight="1"/>
-    <row r="768" ht="12.75" customHeight="1"/>
-    <row r="769" ht="12.75" customHeight="1"/>
-    <row r="770" ht="12.75" customHeight="1"/>
-    <row r="771" ht="12.75" customHeight="1"/>
-    <row r="772" ht="12.75" customHeight="1"/>
-    <row r="773" ht="12.75" customHeight="1"/>
-    <row r="774" ht="12.75" customHeight="1"/>
-    <row r="775" ht="12.75" customHeight="1"/>
-    <row r="776" ht="12.75" customHeight="1"/>
-    <row r="777" ht="12.75" customHeight="1"/>
-    <row r="778" ht="12.75" customHeight="1"/>
-    <row r="779" ht="12.75" customHeight="1"/>
-    <row r="780" ht="12.75" customHeight="1"/>
-    <row r="781" ht="12.75" customHeight="1"/>
-    <row r="782" ht="12.75" customHeight="1"/>
-    <row r="783" ht="12.75" customHeight="1"/>
-    <row r="784" ht="12.75" customHeight="1"/>
-    <row r="785" ht="12.75" customHeight="1"/>
-    <row r="786" ht="12.75" customHeight="1"/>
-    <row r="787" ht="12.75" customHeight="1"/>
-    <row r="788" ht="12.75" customHeight="1"/>
-    <row r="789" ht="12.75" customHeight="1"/>
-    <row r="790" ht="12.75" customHeight="1"/>
-    <row r="791" ht="12.75" customHeight="1"/>
-    <row r="792" ht="12.75" customHeight="1"/>
-    <row r="793" ht="12.75" customHeight="1"/>
-    <row r="794" ht="12.75" customHeight="1"/>
-    <row r="795" ht="12.75" customHeight="1"/>
-    <row r="796" ht="12.75" customHeight="1"/>
-    <row r="797" ht="12.75" customHeight="1"/>
-    <row r="798" ht="12.75" customHeight="1"/>
-    <row r="799" ht="12.75" customHeight="1"/>
-    <row r="800" ht="12.75" customHeight="1"/>
-    <row r="801" ht="12.75" customHeight="1"/>
-    <row r="802" ht="12.75" customHeight="1"/>
-    <row r="803" ht="12.75" customHeight="1"/>
-    <row r="804" ht="12.75" customHeight="1"/>
-    <row r="805" ht="12.75" customHeight="1"/>
-    <row r="806" ht="12.75" customHeight="1"/>
-    <row r="807" ht="12.75" customHeight="1"/>
-    <row r="808" ht="12.75" customHeight="1"/>
-    <row r="809" ht="12.75" customHeight="1"/>
-    <row r="810" ht="12.75" customHeight="1"/>
-    <row r="811" ht="12.75" customHeight="1"/>
-    <row r="812" ht="12.75" customHeight="1"/>
-    <row r="813" ht="12.75" customHeight="1"/>
-    <row r="814" ht="12.75" customHeight="1"/>
-    <row r="815" ht="12.75" customHeight="1"/>
-    <row r="816" ht="12.75" customHeight="1"/>
-    <row r="817" ht="12.75" customHeight="1"/>
-    <row r="818" ht="12.75" customHeight="1"/>
-    <row r="819" ht="12.75" customHeight="1"/>
-    <row r="820" ht="12.75" customHeight="1"/>
-    <row r="821" ht="12.75" customHeight="1"/>
-    <row r="822" ht="12.75" customHeight="1"/>
-    <row r="823" ht="12.75" customHeight="1"/>
-    <row r="824" ht="12.75" customHeight="1"/>
-    <row r="825" ht="12.75" customHeight="1"/>
-    <row r="826" ht="12.75" customHeight="1"/>
-    <row r="827" ht="12.75" customHeight="1"/>
-    <row r="828" ht="12.75" customHeight="1"/>
-    <row r="829" ht="12.75" customHeight="1"/>
-    <row r="830" ht="12.75" customHeight="1"/>
-    <row r="831" ht="12.75" customHeight="1"/>
-    <row r="832" ht="12.75" customHeight="1"/>
-    <row r="833" ht="12.75" customHeight="1"/>
-    <row r="834" ht="12.75" customHeight="1"/>
-    <row r="835" ht="12.75" customHeight="1"/>
-    <row r="836" ht="12.75" customHeight="1"/>
-    <row r="837" ht="12.75" customHeight="1"/>
-    <row r="838" ht="12.75" customHeight="1"/>
-    <row r="839" ht="12.75" customHeight="1"/>
-    <row r="840" ht="12.75" customHeight="1"/>
-    <row r="841" ht="12.75" customHeight="1"/>
-    <row r="842" ht="12.75" customHeight="1"/>
-    <row r="843" ht="12.75" customHeight="1"/>
-    <row r="844" ht="12.75" customHeight="1"/>
-    <row r="845" ht="12.75" customHeight="1"/>
-    <row r="846" ht="12.75" customHeight="1"/>
-    <row r="847" ht="12.75" customHeight="1"/>
-    <row r="848" ht="12.75" customHeight="1"/>
-    <row r="849" ht="12.75" customHeight="1"/>
-    <row r="850" ht="12.75" customHeight="1"/>
-    <row r="851" ht="12.75" customHeight="1"/>
-    <row r="852" ht="12.75" customHeight="1"/>
-    <row r="853" ht="12.75" customHeight="1"/>
-    <row r="854" ht="12.75" customHeight="1"/>
-    <row r="855" ht="12.75" customHeight="1"/>
-    <row r="856" ht="12.75" customHeight="1"/>
-    <row r="857" ht="12.75" customHeight="1"/>
-    <row r="858" ht="12.75" customHeight="1"/>
-    <row r="859" ht="12.75" customHeight="1"/>
-    <row r="860" ht="12.75" customHeight="1"/>
-    <row r="861" ht="12.75" customHeight="1"/>
-    <row r="862" ht="12.75" customHeight="1"/>
-    <row r="863" ht="12.75" customHeight="1"/>
-    <row r="864" ht="12.75" customHeight="1"/>
-    <row r="865" ht="12.75" customHeight="1"/>
-    <row r="866" ht="12.75" customHeight="1"/>
-    <row r="867" ht="12.75" customHeight="1"/>
-    <row r="868" ht="12.75" customHeight="1"/>
-    <row r="869" ht="12.75" customHeight="1"/>
-    <row r="870" ht="12.75" customHeight="1"/>
-    <row r="871" ht="12.75" customHeight="1"/>
-    <row r="872" ht="12.75" customHeight="1"/>
-    <row r="873" ht="12.75" customHeight="1"/>
-    <row r="874" ht="12.75" customHeight="1"/>
-    <row r="875" ht="12.75" customHeight="1"/>
-    <row r="876" ht="12.75" customHeight="1"/>
-    <row r="877" ht="12.75" customHeight="1"/>
-    <row r="878" ht="12.75" customHeight="1"/>
-    <row r="879" ht="12.75" customHeight="1"/>
-    <row r="880" ht="12.75" customHeight="1"/>
-    <row r="881" ht="12.75" customHeight="1"/>
-    <row r="882" ht="12.75" customHeight="1"/>
-    <row r="883" ht="12.75" customHeight="1"/>
-    <row r="884" ht="12.75" customHeight="1"/>
-    <row r="885" ht="12.75" customHeight="1"/>
-    <row r="886" ht="12.75" customHeight="1"/>
-    <row r="887" ht="12.75" customHeight="1"/>
-    <row r="888" ht="12.75" customHeight="1"/>
-    <row r="889" ht="12.75" customHeight="1"/>
-    <row r="890" ht="12.75" customHeight="1"/>
-    <row r="891" ht="12.75" customHeight="1"/>
-    <row r="892" ht="12.75" customHeight="1"/>
-    <row r="893" ht="12.75" customHeight="1"/>
-    <row r="894" ht="12.75" customHeight="1"/>
-    <row r="895" ht="12.75" customHeight="1"/>
-    <row r="896" ht="12.75" customHeight="1"/>
-    <row r="897" ht="12.75" customHeight="1"/>
-    <row r="898" ht="12.75" customHeight="1"/>
-    <row r="899" ht="12.75" customHeight="1"/>
-    <row r="900" ht="12.75" customHeight="1"/>
-    <row r="901" ht="12.75" customHeight="1"/>
-    <row r="902" ht="12.75" customHeight="1"/>
-    <row r="903" ht="12.75" customHeight="1"/>
-    <row r="904" ht="12.75" customHeight="1"/>
-    <row r="905" ht="12.75" customHeight="1"/>
-    <row r="906" ht="12.75" customHeight="1"/>
-    <row r="907" ht="12.75" customHeight="1"/>
-    <row r="908" ht="12.75" customHeight="1"/>
-    <row r="909" ht="12.75" customHeight="1"/>
-    <row r="910" ht="12.75" customHeight="1"/>
-    <row r="911" ht="12.75" customHeight="1"/>
-    <row r="912" ht="12.75" customHeight="1"/>
-    <row r="913" ht="12.75" customHeight="1"/>
-    <row r="914" ht="12.75" customHeight="1"/>
-    <row r="915" ht="12.75" customHeight="1"/>
-    <row r="916" ht="12.75" customHeight="1"/>
-    <row r="917" ht="12.75" customHeight="1"/>
-    <row r="918" ht="12.75" customHeight="1"/>
-    <row r="919" ht="12.75" customHeight="1"/>
-    <row r="920" ht="12.75" customHeight="1"/>
-    <row r="921" ht="12.75" customHeight="1"/>
-    <row r="922" ht="12.75" customHeight="1"/>
-    <row r="923" ht="12.75" customHeight="1"/>
-    <row r="924" ht="12.75" customHeight="1"/>
-    <row r="925" ht="12.75" customHeight="1"/>
-    <row r="926" ht="12.75" customHeight="1"/>
-    <row r="927" ht="12.75" customHeight="1"/>
-    <row r="928" ht="12.75" customHeight="1"/>
-    <row r="929" ht="12.75" customHeight="1"/>
-    <row r="930" ht="12.75" customHeight="1"/>
-    <row r="931" ht="12.75" customHeight="1"/>
-    <row r="932" ht="12.75" customHeight="1"/>
-    <row r="933" ht="12.75" customHeight="1"/>
-    <row r="934" ht="12.75" customHeight="1"/>
-    <row r="935" ht="12.75" customHeight="1"/>
-    <row r="936" ht="12.75" customHeight="1"/>
-    <row r="937" ht="12.75" customHeight="1"/>
-    <row r="938" ht="12.75" customHeight="1"/>
-    <row r="939" ht="12.75" customHeight="1"/>
-    <row r="940" ht="12.75" customHeight="1"/>
-    <row r="941" ht="12.75" customHeight="1"/>
-    <row r="942" ht="12.75" customHeight="1"/>
-    <row r="943" ht="12.75" customHeight="1"/>
-    <row r="944" ht="12.75" customHeight="1"/>
-    <row r="945" ht="12.75" customHeight="1"/>
-    <row r="946" ht="12.75" customHeight="1"/>
-    <row r="947" ht="12.75" customHeight="1"/>
-    <row r="948" ht="12.75" customHeight="1"/>
-    <row r="949" ht="12.75" customHeight="1"/>
-    <row r="950" ht="12.75" customHeight="1"/>
-    <row r="951" ht="12.75" customHeight="1"/>
-    <row r="952" ht="12.75" customHeight="1"/>
-    <row r="953" ht="12.75" customHeight="1"/>
-    <row r="954" ht="12.75" customHeight="1"/>
-    <row r="955" ht="12.75" customHeight="1"/>
-    <row r="956" ht="12.75" customHeight="1"/>
-    <row r="957" ht="12.75" customHeight="1"/>
-    <row r="958" ht="12.75" customHeight="1"/>
-    <row r="959" ht="12.75" customHeight="1"/>
-    <row r="960" ht="12.75" customHeight="1"/>
-    <row r="961" ht="12.75" customHeight="1"/>
-    <row r="962" ht="12.75" customHeight="1"/>
-    <row r="963" ht="12.75" customHeight="1"/>
-    <row r="964" ht="12.75" customHeight="1"/>
-    <row r="965" ht="12.75" customHeight="1"/>
-    <row r="966" ht="12.75" customHeight="1"/>
-    <row r="967" ht="12.75" customHeight="1"/>
-    <row r="968" ht="12.75" customHeight="1"/>
-    <row r="969" ht="12.75" customHeight="1"/>
-    <row r="970" ht="12.75" customHeight="1"/>
-    <row r="971" ht="12.75" customHeight="1"/>
-    <row r="972" ht="12.75" customHeight="1"/>
-    <row r="973" ht="12.75" customHeight="1"/>
-    <row r="974" ht="12.75" customHeight="1"/>
-    <row r="975" ht="12.75" customHeight="1"/>
-    <row r="976" ht="12.75" customHeight="1"/>
-    <row r="977" ht="12.75" customHeight="1"/>
-    <row r="978" ht="12.75" customHeight="1"/>
-    <row r="979" ht="12.75" customHeight="1"/>
-    <row r="980" ht="12.75" customHeight="1"/>
-    <row r="981" ht="12.75" customHeight="1"/>
-    <row r="982" ht="12.75" customHeight="1"/>
-    <row r="983" ht="12.75" customHeight="1"/>
-    <row r="984" ht="12.75" customHeight="1"/>
-    <row r="985" ht="12.75" customHeight="1"/>
-    <row r="986" ht="12.75" customHeight="1"/>
-    <row r="987" ht="12.75" customHeight="1"/>
-    <row r="988" ht="12.75" customHeight="1"/>
-    <row r="989" ht="12.75" customHeight="1"/>
-    <row r="990" ht="12.75" customHeight="1"/>
-    <row r="991" ht="12.75" customHeight="1"/>
-    <row r="992" ht="12.75" customHeight="1"/>
-    <row r="993" ht="12.75" customHeight="1"/>
-    <row r="994" ht="12.75" customHeight="1"/>
-    <row r="995" ht="12.75" customHeight="1"/>
-    <row r="996" ht="12.75" customHeight="1"/>
-    <row r="997" ht="12.75" customHeight="1"/>
-    <row r="998" ht="12.75" customHeight="1"/>
-    <row r="999" ht="12.75" customHeight="1"/>
-    <row r="1000" ht="12.75" customHeight="1"/>
+    <row r="61" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="62" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="63" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="64" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="65" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="66" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="67" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="68" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="69" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="70" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="71" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="72" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="73" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="74" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="75" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="76" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="77" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="78" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="79" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="80" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="81" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="82" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="83" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="84" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="85" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="86" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="87" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="88" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="89" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="90" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="91" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="92" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="93" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="94" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="95" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="96" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="97" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="98" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="99" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="100" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="101" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="102" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="103" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="104" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="105" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="106" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="107" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="108" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="109" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="110" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="111" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="112" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="113" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="114" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="115" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="116" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="117" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="118" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="119" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="120" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="121" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="122" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="123" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="124" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="125" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="126" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="127" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="128" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="129" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="130" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="131" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="132" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="133" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="134" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="135" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="136" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="137" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="138" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="139" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="140" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="141" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="142" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="143" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="144" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="145" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="146" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="147" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="148" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="149" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="150" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="151" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="152" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="153" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="154" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="155" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="156" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="157" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="158" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="159" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="160" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="161" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="162" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="163" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="164" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="165" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="166" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="167" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="168" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="169" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="170" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="171" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="172" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="173" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="174" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="175" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="176" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="177" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="178" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="179" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="180" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="181" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="182" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="183" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="184" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="185" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="186" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="187" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="188" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="189" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="190" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="191" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="192" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="193" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="194" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="195" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="196" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="197" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="198" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="199" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="200" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="201" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="202" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="203" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="204" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="205" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="206" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="207" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="208" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="209" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="210" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="211" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="212" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="213" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="214" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="215" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="216" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="217" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="218" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="219" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="220" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="221" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="222" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="223" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="224" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="225" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="226" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="227" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="228" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="229" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="230" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="231" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="232" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="233" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="234" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="235" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="236" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="237" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="238" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="239" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="240" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="241" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="242" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="243" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="244" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="245" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="246" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="247" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="248" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="249" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="250" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="251" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="252" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="253" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="254" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="255" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="256" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="257" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="258" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="259" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="260" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="261" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="262" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="263" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="264" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="265" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="266" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="267" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="268" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="269" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="270" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="271" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="272" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="273" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="274" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="275" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="276" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="277" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="278" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="279" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="280" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="281" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="282" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="283" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="284" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="285" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="286" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="287" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="288" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="289" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="290" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="291" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="292" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="293" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="294" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="295" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="296" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="297" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="298" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="299" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="300" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="301" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="302" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="303" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="304" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="305" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="306" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="307" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="308" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="309" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="310" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="311" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="312" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="313" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="314" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="315" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="316" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="317" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="318" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="319" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="320" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="321" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="322" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="323" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="324" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="325" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="326" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="327" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="328" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="329" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="330" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="331" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="332" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="333" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="334" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="335" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="336" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="337" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="338" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="339" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="340" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="341" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="342" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="343" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="344" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="345" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="346" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="347" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="348" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="349" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="350" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="351" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="352" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="353" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="354" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="355" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="356" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="357" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="358" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="359" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="360" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="361" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="362" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="363" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="364" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="365" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="366" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="367" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="368" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="369" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="370" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="371" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="372" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="373" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="374" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="375" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="376" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="377" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="378" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="379" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="380" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="381" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="382" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="383" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="384" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="385" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="386" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="387" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="388" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="389" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="390" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="391" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="392" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="393" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="394" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="395" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="396" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="397" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="398" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="399" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="400" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="401" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="402" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="403" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="404" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="405" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="406" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="407" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="408" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="409" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="410" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="411" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="412" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="413" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="414" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="415" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="416" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="417" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="418" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="419" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="420" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="421" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="422" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="423" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="424" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="425" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="426" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="427" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="428" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="429" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="430" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="431" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="432" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="433" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="434" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="435" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="436" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="437" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="438" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="439" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="440" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="441" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="442" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="443" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="444" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="445" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="446" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="447" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="448" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="449" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="450" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="451" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="452" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="453" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="454" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="455" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="456" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="457" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="458" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="459" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="460" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="461" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="462" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="463" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="464" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="465" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="466" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="467" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="468" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="469" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="470" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="471" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="472" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="473" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="474" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="475" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="476" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="477" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="478" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="479" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="480" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="481" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="482" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="483" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="484" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="485" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="486" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="487" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="488" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="489" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="490" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="491" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="492" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="493" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="494" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="495" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="496" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="497" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="498" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="499" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="500" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="501" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="502" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="503" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="504" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="505" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="506" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="507" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="508" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="509" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="510" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="511" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="512" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="513" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="514" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="515" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="516" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="517" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="518" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="519" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="520" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="521" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="522" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="523" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="524" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="525" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="526" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="527" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="528" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="529" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="530" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="531" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="532" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="533" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="534" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="535" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="536" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="537" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="538" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="539" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="540" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="541" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="542" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="543" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="544" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="545" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="546" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="547" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="548" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="549" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="550" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="551" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="552" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="553" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="554" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="555" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="556" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="557" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="558" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="559" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="560" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="561" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="562" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="563" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="564" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="565" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="566" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="567" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="568" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="569" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="570" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="571" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="572" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="573" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="574" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="575" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="576" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="577" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="578" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="579" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="580" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="581" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="582" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="583" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="584" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="585" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="586" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="587" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="588" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="589" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="590" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="591" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="592" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="593" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="594" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="595" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="596" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="597" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="598" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="599" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="600" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="601" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="602" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="603" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="604" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="605" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="606" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="607" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="608" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="609" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="610" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="611" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="612" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="613" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="614" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="615" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="616" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="617" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="618" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="619" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="620" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="621" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="622" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="623" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="624" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="625" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="626" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="627" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="628" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="629" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="630" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="631" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="632" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="633" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="634" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="635" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="636" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="637" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="638" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="639" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="640" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="641" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="642" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="643" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="644" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="645" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="646" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="647" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="648" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="649" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="650" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="651" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="652" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="653" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="654" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="655" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="656" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="657" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="658" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="659" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="660" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="661" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="662" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="663" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="664" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="665" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="666" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="667" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="668" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="669" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="670" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="671" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="672" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="673" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="674" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="675" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="676" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="677" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="678" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="679" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="680" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="681" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="682" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="683" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="684" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="685" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="686" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="687" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="688" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="689" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="690" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="691" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="692" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="693" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="694" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="695" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="696" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="697" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="698" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="699" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="700" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="701" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="702" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="703" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="704" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="705" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="706" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="707" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="708" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="709" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="710" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="711" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="712" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="713" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="714" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="715" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="716" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="717" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="718" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="719" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="720" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="721" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="722" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="723" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="724" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="725" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="726" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="727" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="728" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="729" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="730" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="731" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="732" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="733" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="734" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="735" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="736" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="737" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="738" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="739" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="740" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="741" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="742" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="743" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="744" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="745" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="746" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="747" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="748" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="749" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="750" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="751" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="752" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="753" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="754" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="755" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="756" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="757" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="758" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="759" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="760" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="761" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="762" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="763" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="764" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="765" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="766" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="767" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="768" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="769" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="770" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="771" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="772" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="773" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="774" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="775" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="776" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="777" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="778" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="779" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="780" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="781" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="782" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="783" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="784" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="785" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="786" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="787" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="788" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="789" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="790" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="791" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="792" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="793" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="794" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="795" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="796" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="797" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="798" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="799" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="800" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="801" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="802" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="803" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="804" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="805" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="806" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="807" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="808" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="809" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="810" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="811" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="812" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="813" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="814" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="815" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="816" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="817" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="818" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="819" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="820" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="821" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="822" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="823" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="824" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="825" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="826" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="827" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="828" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="829" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="830" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="831" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="832" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="833" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="834" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="835" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="836" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="837" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="838" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="839" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="840" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="841" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="842" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="843" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="844" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="845" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="846" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="847" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="848" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="849" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="850" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="851" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="852" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="853" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="854" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="855" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="856" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="857" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="858" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="859" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="860" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="861" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="862" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="863" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="864" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="865" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="866" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="867" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="868" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="869" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="870" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="871" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="872" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="873" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="874" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="875" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="876" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="877" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="878" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="879" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="880" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="881" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="882" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="883" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="884" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="885" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="886" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="887" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="888" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="889" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="890" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="891" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="892" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="893" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="894" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="895" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="896" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="897" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="898" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="899" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="900" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="901" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="902" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="903" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="904" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="905" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="906" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="907" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="908" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="909" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="910" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="911" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="912" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="913" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="914" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="915" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="916" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="917" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="918" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="919" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="920" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="921" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="922" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="923" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="924" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="925" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="926" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="927" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="928" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="929" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="930" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="931" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="932" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="933" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="934" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="935" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="936" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="937" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="938" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="939" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="940" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="941" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="942" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="943" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="944" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="945" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="946" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="947" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="948" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="949" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="950" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="951" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="952" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="953" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="954" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="955" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="956" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="957" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="958" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="959" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="960" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="961" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="962" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="963" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="964" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="965" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="966" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="967" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="968" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="969" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="970" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="971" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="972" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="973" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="974" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="975" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="976" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="977" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="978" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="979" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="980" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="981" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="982" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="983" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="984" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="985" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="986" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="987" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="988" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="989" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="990" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="991" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="992" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="993" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="994" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="995" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="996" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="997" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="998" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="999" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1000" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:T1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A8" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="15.86"/>
-    <col customWidth="1" min="2" max="20" width="50.86"/>
-    <col customWidth="1" min="21" max="26" width="8.71"/>
+    <col min="1" max="1" width="15.85546875" customWidth="1"/>
+    <col min="2" max="20" width="50.85546875" customWidth="1"/>
+    <col min="21" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="12.75" customHeight="1">
+    <row r="1" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>128</v>
       </c>
@@ -5555,7 +5568,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="2" ht="12.75" customHeight="1">
+    <row r="2" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>18</v>
       </c>
@@ -5603,7 +5616,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="3" ht="12.75" customHeight="1">
+    <row r="3" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>20</v>
       </c>
@@ -5647,7 +5660,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="4" ht="12.75" customHeight="1">
+    <row r="4" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>22</v>
       </c>
@@ -5695,7 +5708,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="5" ht="12.75" customHeight="1">
+    <row r="5" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>25</v>
       </c>
@@ -5741,7 +5754,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="6" ht="12.75" customHeight="1">
+    <row r="6" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>27</v>
       </c>
@@ -5791,7 +5804,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="7" ht="12.75" customHeight="1">
+    <row r="7" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>29</v>
       </c>
@@ -5843,7 +5856,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="8" ht="12.75" customHeight="1">
+    <row r="8" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>31</v>
       </c>
@@ -5887,7 +5900,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="9" ht="12.75" customHeight="1">
+    <row r="9" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>33</v>
       </c>
@@ -5929,7 +5942,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="10" ht="12.75" customHeight="1">
+    <row r="10" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>35</v>
       </c>
@@ -5973,7 +5986,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="11" ht="12.75" customHeight="1">
+    <row r="11" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>37</v>
       </c>
@@ -6015,7 +6028,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="12" ht="12.75" customHeight="1">
+    <row r="12" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>39</v>
       </c>
@@ -6067,7 +6080,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="13" ht="12.75" customHeight="1">
+    <row r="13" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>41</v>
       </c>
@@ -6111,7 +6124,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="14" ht="12.75" customHeight="1">
+    <row r="14" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>43</v>
       </c>
@@ -6157,7 +6170,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="15" ht="12.75" customHeight="1">
+    <row r="15" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>45</v>
       </c>
@@ -6201,7 +6214,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="16" ht="12.75" customHeight="1">
+    <row r="16" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>47</v>
       </c>
@@ -6249,7 +6262,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="17" ht="12.75" customHeight="1">
+    <row r="17" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>49</v>
       </c>
@@ -6295,7 +6308,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="18" ht="12.75" customHeight="1">
+    <row r="18" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>51</v>
       </c>
@@ -6343,7 +6356,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="19" ht="12.75" customHeight="1">
+    <row r="19" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>53</v>
       </c>
@@ -6391,7 +6404,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="20" ht="12.75" customHeight="1">
+    <row r="20" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>55</v>
       </c>
@@ -6437,7 +6450,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="21" ht="12.75" customHeight="1">
+    <row r="21" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>57</v>
       </c>
@@ -6483,7 +6496,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="22" ht="12.75" customHeight="1">
+    <row r="22" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>59</v>
       </c>
@@ -6529,7 +6542,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="23" ht="12.75" customHeight="1">
+    <row r="23" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>61</v>
       </c>
@@ -6575,7 +6588,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="24" ht="12.75" customHeight="1">
+    <row r="24" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>63</v>
       </c>
@@ -6619,7 +6632,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="25" ht="12.75" customHeight="1">
+    <row r="25" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>65</v>
       </c>
@@ -6663,7 +6676,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="26" ht="12.75" customHeight="1">
+    <row r="26" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>67</v>
       </c>
@@ -6711,7 +6724,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="27" ht="12.75" customHeight="1">
+    <row r="27" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>69</v>
       </c>
@@ -6761,7 +6774,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="28" ht="12.75" customHeight="1">
+    <row r="28" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>71</v>
       </c>
@@ -6807,7 +6820,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="29" ht="12.75" customHeight="1">
+    <row r="29" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>73</v>
       </c>
@@ -6853,7 +6866,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="30" ht="12.75" customHeight="1">
+    <row r="30" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>75</v>
       </c>
@@ -6901,7 +6914,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="31" ht="12.75" customHeight="1">
+    <row r="31" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>77</v>
       </c>
@@ -6945,7 +6958,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="32" ht="12.75" customHeight="1">
+    <row r="32" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>79</v>
       </c>
@@ -6993,7 +7006,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="33" ht="12.75" customHeight="1">
+    <row r="33" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>81</v>
       </c>
@@ -7037,7 +7050,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="34" ht="12.75" customHeight="1">
+    <row r="34" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>83</v>
       </c>
@@ -7083,7 +7096,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="35" ht="12.75" customHeight="1">
+    <row r="35" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>85</v>
       </c>
@@ -7123,7 +7136,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="36" ht="12.75" customHeight="1">
+    <row r="36" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>87</v>
       </c>
@@ -7169,7 +7182,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="37" ht="12.75" customHeight="1">
+    <row r="37" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>89</v>
       </c>
@@ -7215,7 +7228,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="38" ht="12.75" customHeight="1">
+    <row r="38" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>91</v>
       </c>
@@ -7259,7 +7272,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="39" ht="12.75" customHeight="1">
+    <row r="39" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>93</v>
       </c>
@@ -7303,7 +7316,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="40" ht="12.75" customHeight="1">
+    <row r="40" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>95</v>
       </c>
@@ -7347,7 +7360,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="41" ht="12.75" customHeight="1">
+    <row r="41" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>97</v>
       </c>
@@ -7391,7 +7404,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="42" ht="12.75" customHeight="1">
+    <row r="42" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>99</v>
       </c>
@@ -7439,7 +7452,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="43" ht="12.75" customHeight="1">
+    <row r="43" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>101</v>
       </c>
@@ -7485,7 +7498,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="44" ht="12.75" customHeight="1">
+    <row r="44" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>103</v>
       </c>
@@ -7529,7 +7542,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="45" ht="12.75" customHeight="1">
+    <row r="45" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>105</v>
       </c>
@@ -7577,7 +7590,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="46" ht="12.75" customHeight="1">
+    <row r="46" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>107</v>
       </c>
@@ -7625,7 +7638,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="47" ht="12.75" customHeight="1">
+    <row r="47" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>109</v>
       </c>
@@ -7671,7 +7684,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="48" ht="12.75" customHeight="1">
+    <row r="48" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>111</v>
       </c>
@@ -7711,7 +7724,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="49" ht="12.75" customHeight="1">
+    <row r="49" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>113</v>
       </c>
@@ -7739,7 +7752,7 @@
         <v>152</v>
       </c>
       <c r="K49" s="3">
-        <v>2015.0</v>
+        <v>2015</v>
       </c>
       <c r="L49" s="3"/>
       <c r="M49" s="3"/>
@@ -7753,7 +7766,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="50" ht="12.75" customHeight="1">
+    <row r="50" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>115</v>
       </c>
@@ -7801,7 +7814,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="51" ht="12.75" customHeight="1">
+    <row r="51" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>117</v>
       </c>
@@ -7851,7 +7864,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="52" ht="12.75" customHeight="1">
+    <row r="52" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>119</v>
       </c>
@@ -7899,7 +7912,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="53" ht="12.75" customHeight="1">
+    <row r="53" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>121</v>
       </c>
@@ -7949,7 +7962,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="54" ht="12.75" customHeight="1">
+    <row r="54" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>123</v>
       </c>
@@ -7997,7 +8010,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="55" ht="12.75" customHeight="1">
+    <row r="55" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>125</v>
       </c>
@@ -8039,955 +8052,953 @@
         <v>158</v>
       </c>
     </row>
-    <row r="56" ht="12.75" customHeight="1"/>
-    <row r="57" ht="12.75" customHeight="1"/>
-    <row r="58" ht="12.75" customHeight="1"/>
-    <row r="59" ht="12.75" customHeight="1"/>
-    <row r="60" ht="12.75" customHeight="1"/>
-    <row r="61" ht="12.75" customHeight="1"/>
-    <row r="62" ht="12.75" customHeight="1"/>
-    <row r="63" ht="12.75" customHeight="1"/>
-    <row r="64" ht="12.75" customHeight="1"/>
-    <row r="65" ht="12.75" customHeight="1"/>
-    <row r="66" ht="12.75" customHeight="1"/>
-    <row r="67" ht="12.75" customHeight="1"/>
-    <row r="68" ht="12.75" customHeight="1"/>
-    <row r="69" ht="12.75" customHeight="1"/>
-    <row r="70" ht="12.75" customHeight="1"/>
-    <row r="71" ht="12.75" customHeight="1"/>
-    <row r="72" ht="12.75" customHeight="1"/>
-    <row r="73" ht="12.75" customHeight="1"/>
-    <row r="74" ht="12.75" customHeight="1"/>
-    <row r="75" ht="12.75" customHeight="1"/>
-    <row r="76" ht="12.75" customHeight="1"/>
-    <row r="77" ht="12.75" customHeight="1"/>
-    <row r="78" ht="12.75" customHeight="1"/>
-    <row r="79" ht="12.75" customHeight="1"/>
-    <row r="80" ht="12.75" customHeight="1"/>
-    <row r="81" ht="12.75" customHeight="1"/>
-    <row r="82" ht="12.75" customHeight="1"/>
-    <row r="83" ht="12.75" customHeight="1"/>
-    <row r="84" ht="12.75" customHeight="1"/>
-    <row r="85" ht="12.75" customHeight="1"/>
-    <row r="86" ht="12.75" customHeight="1"/>
-    <row r="87" ht="12.75" customHeight="1"/>
-    <row r="88" ht="12.75" customHeight="1"/>
-    <row r="89" ht="12.75" customHeight="1"/>
-    <row r="90" ht="12.75" customHeight="1"/>
-    <row r="91" ht="12.75" customHeight="1"/>
-    <row r="92" ht="12.75" customHeight="1"/>
-    <row r="93" ht="12.75" customHeight="1"/>
-    <row r="94" ht="12.75" customHeight="1"/>
-    <row r="95" ht="12.75" customHeight="1"/>
-    <row r="96" ht="12.75" customHeight="1"/>
-    <row r="97" ht="12.75" customHeight="1"/>
-    <row r="98" ht="12.75" customHeight="1"/>
-    <row r="99" ht="12.75" customHeight="1"/>
-    <row r="100" ht="12.75" customHeight="1"/>
-    <row r="101" ht="12.75" customHeight="1"/>
-    <row r="102" ht="12.75" customHeight="1"/>
-    <row r="103" ht="12.75" customHeight="1"/>
-    <row r="104" ht="12.75" customHeight="1"/>
-    <row r="105" ht="12.75" customHeight="1"/>
-    <row r="106" ht="12.75" customHeight="1"/>
-    <row r="107" ht="12.75" customHeight="1"/>
-    <row r="108" ht="12.75" customHeight="1"/>
-    <row r="109" ht="12.75" customHeight="1"/>
-    <row r="110" ht="12.75" customHeight="1"/>
-    <row r="111" ht="12.75" customHeight="1"/>
-    <row r="112" ht="12.75" customHeight="1"/>
-    <row r="113" ht="12.75" customHeight="1"/>
-    <row r="114" ht="12.75" customHeight="1"/>
-    <row r="115" ht="12.75" customHeight="1"/>
-    <row r="116" ht="12.75" customHeight="1"/>
-    <row r="117" ht="12.75" customHeight="1"/>
-    <row r="118" ht="12.75" customHeight="1"/>
-    <row r="119" ht="12.75" customHeight="1"/>
-    <row r="120" ht="12.75" customHeight="1"/>
-    <row r="121" ht="12.75" customHeight="1"/>
-    <row r="122" ht="12.75" customHeight="1"/>
-    <row r="123" ht="12.75" customHeight="1"/>
-    <row r="124" ht="12.75" customHeight="1"/>
-    <row r="125" ht="12.75" customHeight="1"/>
-    <row r="126" ht="12.75" customHeight="1"/>
-    <row r="127" ht="12.75" customHeight="1"/>
-    <row r="128" ht="12.75" customHeight="1"/>
-    <row r="129" ht="12.75" customHeight="1"/>
-    <row r="130" ht="12.75" customHeight="1"/>
-    <row r="131" ht="12.75" customHeight="1"/>
-    <row r="132" ht="12.75" customHeight="1"/>
-    <row r="133" ht="12.75" customHeight="1"/>
-    <row r="134" ht="12.75" customHeight="1"/>
-    <row r="135" ht="12.75" customHeight="1"/>
-    <row r="136" ht="12.75" customHeight="1"/>
-    <row r="137" ht="12.75" customHeight="1"/>
-    <row r="138" ht="12.75" customHeight="1"/>
-    <row r="139" ht="12.75" customHeight="1"/>
-    <row r="140" ht="12.75" customHeight="1"/>
-    <row r="141" ht="12.75" customHeight="1"/>
-    <row r="142" ht="12.75" customHeight="1"/>
-    <row r="143" ht="12.75" customHeight="1"/>
-    <row r="144" ht="12.75" customHeight="1"/>
-    <row r="145" ht="12.75" customHeight="1"/>
-    <row r="146" ht="12.75" customHeight="1"/>
-    <row r="147" ht="12.75" customHeight="1"/>
-    <row r="148" ht="12.75" customHeight="1"/>
-    <row r="149" ht="12.75" customHeight="1"/>
-    <row r="150" ht="12.75" customHeight="1"/>
-    <row r="151" ht="12.75" customHeight="1"/>
-    <row r="152" ht="12.75" customHeight="1"/>
-    <row r="153" ht="12.75" customHeight="1"/>
-    <row r="154" ht="12.75" customHeight="1"/>
-    <row r="155" ht="12.75" customHeight="1"/>
-    <row r="156" ht="12.75" customHeight="1"/>
-    <row r="157" ht="12.75" customHeight="1"/>
-    <row r="158" ht="12.75" customHeight="1"/>
-    <row r="159" ht="12.75" customHeight="1"/>
-    <row r="160" ht="12.75" customHeight="1"/>
-    <row r="161" ht="12.75" customHeight="1"/>
-    <row r="162" ht="12.75" customHeight="1"/>
-    <row r="163" ht="12.75" customHeight="1"/>
-    <row r="164" ht="12.75" customHeight="1"/>
-    <row r="165" ht="12.75" customHeight="1"/>
-    <row r="166" ht="12.75" customHeight="1"/>
-    <row r="167" ht="12.75" customHeight="1"/>
-    <row r="168" ht="12.75" customHeight="1"/>
-    <row r="169" ht="12.75" customHeight="1"/>
-    <row r="170" ht="12.75" customHeight="1"/>
-    <row r="171" ht="12.75" customHeight="1"/>
-    <row r="172" ht="12.75" customHeight="1"/>
-    <row r="173" ht="12.75" customHeight="1"/>
-    <row r="174" ht="12.75" customHeight="1"/>
-    <row r="175" ht="12.75" customHeight="1"/>
-    <row r="176" ht="12.75" customHeight="1"/>
-    <row r="177" ht="12.75" customHeight="1"/>
-    <row r="178" ht="12.75" customHeight="1"/>
-    <row r="179" ht="12.75" customHeight="1"/>
-    <row r="180" ht="12.75" customHeight="1"/>
-    <row r="181" ht="12.75" customHeight="1"/>
-    <row r="182" ht="12.75" customHeight="1"/>
-    <row r="183" ht="12.75" customHeight="1"/>
-    <row r="184" ht="12.75" customHeight="1"/>
-    <row r="185" ht="12.75" customHeight="1"/>
-    <row r="186" ht="12.75" customHeight="1"/>
-    <row r="187" ht="12.75" customHeight="1"/>
-    <row r="188" ht="12.75" customHeight="1"/>
-    <row r="189" ht="12.75" customHeight="1"/>
-    <row r="190" ht="12.75" customHeight="1"/>
-    <row r="191" ht="12.75" customHeight="1"/>
-    <row r="192" ht="12.75" customHeight="1"/>
-    <row r="193" ht="12.75" customHeight="1"/>
-    <row r="194" ht="12.75" customHeight="1"/>
-    <row r="195" ht="12.75" customHeight="1"/>
-    <row r="196" ht="12.75" customHeight="1"/>
-    <row r="197" ht="12.75" customHeight="1"/>
-    <row r="198" ht="12.75" customHeight="1"/>
-    <row r="199" ht="12.75" customHeight="1"/>
-    <row r="200" ht="12.75" customHeight="1"/>
-    <row r="201" ht="12.75" customHeight="1"/>
-    <row r="202" ht="12.75" customHeight="1"/>
-    <row r="203" ht="12.75" customHeight="1"/>
-    <row r="204" ht="12.75" customHeight="1"/>
-    <row r="205" ht="12.75" customHeight="1"/>
-    <row r="206" ht="12.75" customHeight="1"/>
-    <row r="207" ht="12.75" customHeight="1"/>
-    <row r="208" ht="12.75" customHeight="1"/>
-    <row r="209" ht="12.75" customHeight="1"/>
-    <row r="210" ht="12.75" customHeight="1"/>
-    <row r="211" ht="12.75" customHeight="1"/>
-    <row r="212" ht="12.75" customHeight="1"/>
-    <row r="213" ht="12.75" customHeight="1"/>
-    <row r="214" ht="12.75" customHeight="1"/>
-    <row r="215" ht="12.75" customHeight="1"/>
-    <row r="216" ht="12.75" customHeight="1"/>
-    <row r="217" ht="12.75" customHeight="1"/>
-    <row r="218" ht="12.75" customHeight="1"/>
-    <row r="219" ht="12.75" customHeight="1"/>
-    <row r="220" ht="12.75" customHeight="1"/>
-    <row r="221" ht="12.75" customHeight="1"/>
-    <row r="222" ht="12.75" customHeight="1"/>
-    <row r="223" ht="12.75" customHeight="1"/>
-    <row r="224" ht="12.75" customHeight="1"/>
-    <row r="225" ht="12.75" customHeight="1"/>
-    <row r="226" ht="12.75" customHeight="1"/>
-    <row r="227" ht="12.75" customHeight="1"/>
-    <row r="228" ht="12.75" customHeight="1"/>
-    <row r="229" ht="12.75" customHeight="1"/>
-    <row r="230" ht="12.75" customHeight="1"/>
-    <row r="231" ht="12.75" customHeight="1"/>
-    <row r="232" ht="12.75" customHeight="1"/>
-    <row r="233" ht="12.75" customHeight="1"/>
-    <row r="234" ht="12.75" customHeight="1"/>
-    <row r="235" ht="12.75" customHeight="1"/>
-    <row r="236" ht="12.75" customHeight="1"/>
-    <row r="237" ht="12.75" customHeight="1"/>
-    <row r="238" ht="12.75" customHeight="1"/>
-    <row r="239" ht="12.75" customHeight="1"/>
-    <row r="240" ht="12.75" customHeight="1"/>
-    <row r="241" ht="12.75" customHeight="1"/>
-    <row r="242" ht="12.75" customHeight="1"/>
-    <row r="243" ht="12.75" customHeight="1"/>
-    <row r="244" ht="12.75" customHeight="1"/>
-    <row r="245" ht="12.75" customHeight="1"/>
-    <row r="246" ht="12.75" customHeight="1"/>
-    <row r="247" ht="12.75" customHeight="1"/>
-    <row r="248" ht="12.75" customHeight="1"/>
-    <row r="249" ht="12.75" customHeight="1"/>
-    <row r="250" ht="12.75" customHeight="1"/>
-    <row r="251" ht="12.75" customHeight="1"/>
-    <row r="252" ht="12.75" customHeight="1"/>
-    <row r="253" ht="12.75" customHeight="1"/>
-    <row r="254" ht="12.75" customHeight="1"/>
-    <row r="255" ht="12.75" customHeight="1"/>
-    <row r="256" ht="12.75" customHeight="1"/>
-    <row r="257" ht="12.75" customHeight="1"/>
-    <row r="258" ht="12.75" customHeight="1"/>
-    <row r="259" ht="12.75" customHeight="1"/>
-    <row r="260" ht="12.75" customHeight="1"/>
-    <row r="261" ht="12.75" customHeight="1"/>
-    <row r="262" ht="12.75" customHeight="1"/>
-    <row r="263" ht="12.75" customHeight="1"/>
-    <row r="264" ht="12.75" customHeight="1"/>
-    <row r="265" ht="12.75" customHeight="1"/>
-    <row r="266" ht="12.75" customHeight="1"/>
-    <row r="267" ht="12.75" customHeight="1"/>
-    <row r="268" ht="12.75" customHeight="1"/>
-    <row r="269" ht="12.75" customHeight="1"/>
-    <row r="270" ht="12.75" customHeight="1"/>
-    <row r="271" ht="12.75" customHeight="1"/>
-    <row r="272" ht="12.75" customHeight="1"/>
-    <row r="273" ht="12.75" customHeight="1"/>
-    <row r="274" ht="12.75" customHeight="1"/>
-    <row r="275" ht="12.75" customHeight="1"/>
-    <row r="276" ht="12.75" customHeight="1"/>
-    <row r="277" ht="12.75" customHeight="1"/>
-    <row r="278" ht="12.75" customHeight="1"/>
-    <row r="279" ht="12.75" customHeight="1"/>
-    <row r="280" ht="12.75" customHeight="1"/>
-    <row r="281" ht="12.75" customHeight="1"/>
-    <row r="282" ht="12.75" customHeight="1"/>
-    <row r="283" ht="12.75" customHeight="1"/>
-    <row r="284" ht="12.75" customHeight="1"/>
-    <row r="285" ht="12.75" customHeight="1"/>
-    <row r="286" ht="12.75" customHeight="1"/>
-    <row r="287" ht="12.75" customHeight="1"/>
-    <row r="288" ht="12.75" customHeight="1"/>
-    <row r="289" ht="12.75" customHeight="1"/>
-    <row r="290" ht="12.75" customHeight="1"/>
-    <row r="291" ht="12.75" customHeight="1"/>
-    <row r="292" ht="12.75" customHeight="1"/>
-    <row r="293" ht="12.75" customHeight="1"/>
-    <row r="294" ht="12.75" customHeight="1"/>
-    <row r="295" ht="12.75" customHeight="1"/>
-    <row r="296" ht="12.75" customHeight="1"/>
-    <row r="297" ht="12.75" customHeight="1"/>
-    <row r="298" ht="12.75" customHeight="1"/>
-    <row r="299" ht="12.75" customHeight="1"/>
-    <row r="300" ht="12.75" customHeight="1"/>
-    <row r="301" ht="12.75" customHeight="1"/>
-    <row r="302" ht="12.75" customHeight="1"/>
-    <row r="303" ht="12.75" customHeight="1"/>
-    <row r="304" ht="12.75" customHeight="1"/>
-    <row r="305" ht="12.75" customHeight="1"/>
-    <row r="306" ht="12.75" customHeight="1"/>
-    <row r="307" ht="12.75" customHeight="1"/>
-    <row r="308" ht="12.75" customHeight="1"/>
-    <row r="309" ht="12.75" customHeight="1"/>
-    <row r="310" ht="12.75" customHeight="1"/>
-    <row r="311" ht="12.75" customHeight="1"/>
-    <row r="312" ht="12.75" customHeight="1"/>
-    <row r="313" ht="12.75" customHeight="1"/>
-    <row r="314" ht="12.75" customHeight="1"/>
-    <row r="315" ht="12.75" customHeight="1"/>
-    <row r="316" ht="12.75" customHeight="1"/>
-    <row r="317" ht="12.75" customHeight="1"/>
-    <row r="318" ht="12.75" customHeight="1"/>
-    <row r="319" ht="12.75" customHeight="1"/>
-    <row r="320" ht="12.75" customHeight="1"/>
-    <row r="321" ht="12.75" customHeight="1"/>
-    <row r="322" ht="12.75" customHeight="1"/>
-    <row r="323" ht="12.75" customHeight="1"/>
-    <row r="324" ht="12.75" customHeight="1"/>
-    <row r="325" ht="12.75" customHeight="1"/>
-    <row r="326" ht="12.75" customHeight="1"/>
-    <row r="327" ht="12.75" customHeight="1"/>
-    <row r="328" ht="12.75" customHeight="1"/>
-    <row r="329" ht="12.75" customHeight="1"/>
-    <row r="330" ht="12.75" customHeight="1"/>
-    <row r="331" ht="12.75" customHeight="1"/>
-    <row r="332" ht="12.75" customHeight="1"/>
-    <row r="333" ht="12.75" customHeight="1"/>
-    <row r="334" ht="12.75" customHeight="1"/>
-    <row r="335" ht="12.75" customHeight="1"/>
-    <row r="336" ht="12.75" customHeight="1"/>
-    <row r="337" ht="12.75" customHeight="1"/>
-    <row r="338" ht="12.75" customHeight="1"/>
-    <row r="339" ht="12.75" customHeight="1"/>
-    <row r="340" ht="12.75" customHeight="1"/>
-    <row r="341" ht="12.75" customHeight="1"/>
-    <row r="342" ht="12.75" customHeight="1"/>
-    <row r="343" ht="12.75" customHeight="1"/>
-    <row r="344" ht="12.75" customHeight="1"/>
-    <row r="345" ht="12.75" customHeight="1"/>
-    <row r="346" ht="12.75" customHeight="1"/>
-    <row r="347" ht="12.75" customHeight="1"/>
-    <row r="348" ht="12.75" customHeight="1"/>
-    <row r="349" ht="12.75" customHeight="1"/>
-    <row r="350" ht="12.75" customHeight="1"/>
-    <row r="351" ht="12.75" customHeight="1"/>
-    <row r="352" ht="12.75" customHeight="1"/>
-    <row r="353" ht="12.75" customHeight="1"/>
-    <row r="354" ht="12.75" customHeight="1"/>
-    <row r="355" ht="12.75" customHeight="1"/>
-    <row r="356" ht="12.75" customHeight="1"/>
-    <row r="357" ht="12.75" customHeight="1"/>
-    <row r="358" ht="12.75" customHeight="1"/>
-    <row r="359" ht="12.75" customHeight="1"/>
-    <row r="360" ht="12.75" customHeight="1"/>
-    <row r="361" ht="12.75" customHeight="1"/>
-    <row r="362" ht="12.75" customHeight="1"/>
-    <row r="363" ht="12.75" customHeight="1"/>
-    <row r="364" ht="12.75" customHeight="1"/>
-    <row r="365" ht="12.75" customHeight="1"/>
-    <row r="366" ht="12.75" customHeight="1"/>
-    <row r="367" ht="12.75" customHeight="1"/>
-    <row r="368" ht="12.75" customHeight="1"/>
-    <row r="369" ht="12.75" customHeight="1"/>
-    <row r="370" ht="12.75" customHeight="1"/>
-    <row r="371" ht="12.75" customHeight="1"/>
-    <row r="372" ht="12.75" customHeight="1"/>
-    <row r="373" ht="12.75" customHeight="1"/>
-    <row r="374" ht="12.75" customHeight="1"/>
-    <row r="375" ht="12.75" customHeight="1"/>
-    <row r="376" ht="12.75" customHeight="1"/>
-    <row r="377" ht="12.75" customHeight="1"/>
-    <row r="378" ht="12.75" customHeight="1"/>
-    <row r="379" ht="12.75" customHeight="1"/>
-    <row r="380" ht="12.75" customHeight="1"/>
-    <row r="381" ht="12.75" customHeight="1"/>
-    <row r="382" ht="12.75" customHeight="1"/>
-    <row r="383" ht="12.75" customHeight="1"/>
-    <row r="384" ht="12.75" customHeight="1"/>
-    <row r="385" ht="12.75" customHeight="1"/>
-    <row r="386" ht="12.75" customHeight="1"/>
-    <row r="387" ht="12.75" customHeight="1"/>
-    <row r="388" ht="12.75" customHeight="1"/>
-    <row r="389" ht="12.75" customHeight="1"/>
-    <row r="390" ht="12.75" customHeight="1"/>
-    <row r="391" ht="12.75" customHeight="1"/>
-    <row r="392" ht="12.75" customHeight="1"/>
-    <row r="393" ht="12.75" customHeight="1"/>
-    <row r="394" ht="12.75" customHeight="1"/>
-    <row r="395" ht="12.75" customHeight="1"/>
-    <row r="396" ht="12.75" customHeight="1"/>
-    <row r="397" ht="12.75" customHeight="1"/>
-    <row r="398" ht="12.75" customHeight="1"/>
-    <row r="399" ht="12.75" customHeight="1"/>
-    <row r="400" ht="12.75" customHeight="1"/>
-    <row r="401" ht="12.75" customHeight="1"/>
-    <row r="402" ht="12.75" customHeight="1"/>
-    <row r="403" ht="12.75" customHeight="1"/>
-    <row r="404" ht="12.75" customHeight="1"/>
-    <row r="405" ht="12.75" customHeight="1"/>
-    <row r="406" ht="12.75" customHeight="1"/>
-    <row r="407" ht="12.75" customHeight="1"/>
-    <row r="408" ht="12.75" customHeight="1"/>
-    <row r="409" ht="12.75" customHeight="1"/>
-    <row r="410" ht="12.75" customHeight="1"/>
-    <row r="411" ht="12.75" customHeight="1"/>
-    <row r="412" ht="12.75" customHeight="1"/>
-    <row r="413" ht="12.75" customHeight="1"/>
-    <row r="414" ht="12.75" customHeight="1"/>
-    <row r="415" ht="12.75" customHeight="1"/>
-    <row r="416" ht="12.75" customHeight="1"/>
-    <row r="417" ht="12.75" customHeight="1"/>
-    <row r="418" ht="12.75" customHeight="1"/>
-    <row r="419" ht="12.75" customHeight="1"/>
-    <row r="420" ht="12.75" customHeight="1"/>
-    <row r="421" ht="12.75" customHeight="1"/>
-    <row r="422" ht="12.75" customHeight="1"/>
-    <row r="423" ht="12.75" customHeight="1"/>
-    <row r="424" ht="12.75" customHeight="1"/>
-    <row r="425" ht="12.75" customHeight="1"/>
-    <row r="426" ht="12.75" customHeight="1"/>
-    <row r="427" ht="12.75" customHeight="1"/>
-    <row r="428" ht="12.75" customHeight="1"/>
-    <row r="429" ht="12.75" customHeight="1"/>
-    <row r="430" ht="12.75" customHeight="1"/>
-    <row r="431" ht="12.75" customHeight="1"/>
-    <row r="432" ht="12.75" customHeight="1"/>
-    <row r="433" ht="12.75" customHeight="1"/>
-    <row r="434" ht="12.75" customHeight="1"/>
-    <row r="435" ht="12.75" customHeight="1"/>
-    <row r="436" ht="12.75" customHeight="1"/>
-    <row r="437" ht="12.75" customHeight="1"/>
-    <row r="438" ht="12.75" customHeight="1"/>
-    <row r="439" ht="12.75" customHeight="1"/>
-    <row r="440" ht="12.75" customHeight="1"/>
-    <row r="441" ht="12.75" customHeight="1"/>
-    <row r="442" ht="12.75" customHeight="1"/>
-    <row r="443" ht="12.75" customHeight="1"/>
-    <row r="444" ht="12.75" customHeight="1"/>
-    <row r="445" ht="12.75" customHeight="1"/>
-    <row r="446" ht="12.75" customHeight="1"/>
-    <row r="447" ht="12.75" customHeight="1"/>
-    <row r="448" ht="12.75" customHeight="1"/>
-    <row r="449" ht="12.75" customHeight="1"/>
-    <row r="450" ht="12.75" customHeight="1"/>
-    <row r="451" ht="12.75" customHeight="1"/>
-    <row r="452" ht="12.75" customHeight="1"/>
-    <row r="453" ht="12.75" customHeight="1"/>
-    <row r="454" ht="12.75" customHeight="1"/>
-    <row r="455" ht="12.75" customHeight="1"/>
-    <row r="456" ht="12.75" customHeight="1"/>
-    <row r="457" ht="12.75" customHeight="1"/>
-    <row r="458" ht="12.75" customHeight="1"/>
-    <row r="459" ht="12.75" customHeight="1"/>
-    <row r="460" ht="12.75" customHeight="1"/>
-    <row r="461" ht="12.75" customHeight="1"/>
-    <row r="462" ht="12.75" customHeight="1"/>
-    <row r="463" ht="12.75" customHeight="1"/>
-    <row r="464" ht="12.75" customHeight="1"/>
-    <row r="465" ht="12.75" customHeight="1"/>
-    <row r="466" ht="12.75" customHeight="1"/>
-    <row r="467" ht="12.75" customHeight="1"/>
-    <row r="468" ht="12.75" customHeight="1"/>
-    <row r="469" ht="12.75" customHeight="1"/>
-    <row r="470" ht="12.75" customHeight="1"/>
-    <row r="471" ht="12.75" customHeight="1"/>
-    <row r="472" ht="12.75" customHeight="1"/>
-    <row r="473" ht="12.75" customHeight="1"/>
-    <row r="474" ht="12.75" customHeight="1"/>
-    <row r="475" ht="12.75" customHeight="1"/>
-    <row r="476" ht="12.75" customHeight="1"/>
-    <row r="477" ht="12.75" customHeight="1"/>
-    <row r="478" ht="12.75" customHeight="1"/>
-    <row r="479" ht="12.75" customHeight="1"/>
-    <row r="480" ht="12.75" customHeight="1"/>
-    <row r="481" ht="12.75" customHeight="1"/>
-    <row r="482" ht="12.75" customHeight="1"/>
-    <row r="483" ht="12.75" customHeight="1"/>
-    <row r="484" ht="12.75" customHeight="1"/>
-    <row r="485" ht="12.75" customHeight="1"/>
-    <row r="486" ht="12.75" customHeight="1"/>
-    <row r="487" ht="12.75" customHeight="1"/>
-    <row r="488" ht="12.75" customHeight="1"/>
-    <row r="489" ht="12.75" customHeight="1"/>
-    <row r="490" ht="12.75" customHeight="1"/>
-    <row r="491" ht="12.75" customHeight="1"/>
-    <row r="492" ht="12.75" customHeight="1"/>
-    <row r="493" ht="12.75" customHeight="1"/>
-    <row r="494" ht="12.75" customHeight="1"/>
-    <row r="495" ht="12.75" customHeight="1"/>
-    <row r="496" ht="12.75" customHeight="1"/>
-    <row r="497" ht="12.75" customHeight="1"/>
-    <row r="498" ht="12.75" customHeight="1"/>
-    <row r="499" ht="12.75" customHeight="1"/>
-    <row r="500" ht="12.75" customHeight="1"/>
-    <row r="501" ht="12.75" customHeight="1"/>
-    <row r="502" ht="12.75" customHeight="1"/>
-    <row r="503" ht="12.75" customHeight="1"/>
-    <row r="504" ht="12.75" customHeight="1"/>
-    <row r="505" ht="12.75" customHeight="1"/>
-    <row r="506" ht="12.75" customHeight="1"/>
-    <row r="507" ht="12.75" customHeight="1"/>
-    <row r="508" ht="12.75" customHeight="1"/>
-    <row r="509" ht="12.75" customHeight="1"/>
-    <row r="510" ht="12.75" customHeight="1"/>
-    <row r="511" ht="12.75" customHeight="1"/>
-    <row r="512" ht="12.75" customHeight="1"/>
-    <row r="513" ht="12.75" customHeight="1"/>
-    <row r="514" ht="12.75" customHeight="1"/>
-    <row r="515" ht="12.75" customHeight="1"/>
-    <row r="516" ht="12.75" customHeight="1"/>
-    <row r="517" ht="12.75" customHeight="1"/>
-    <row r="518" ht="12.75" customHeight="1"/>
-    <row r="519" ht="12.75" customHeight="1"/>
-    <row r="520" ht="12.75" customHeight="1"/>
-    <row r="521" ht="12.75" customHeight="1"/>
-    <row r="522" ht="12.75" customHeight="1"/>
-    <row r="523" ht="12.75" customHeight="1"/>
-    <row r="524" ht="12.75" customHeight="1"/>
-    <row r="525" ht="12.75" customHeight="1"/>
-    <row r="526" ht="12.75" customHeight="1"/>
-    <row r="527" ht="12.75" customHeight="1"/>
-    <row r="528" ht="12.75" customHeight="1"/>
-    <row r="529" ht="12.75" customHeight="1"/>
-    <row r="530" ht="12.75" customHeight="1"/>
-    <row r="531" ht="12.75" customHeight="1"/>
-    <row r="532" ht="12.75" customHeight="1"/>
-    <row r="533" ht="12.75" customHeight="1"/>
-    <row r="534" ht="12.75" customHeight="1"/>
-    <row r="535" ht="12.75" customHeight="1"/>
-    <row r="536" ht="12.75" customHeight="1"/>
-    <row r="537" ht="12.75" customHeight="1"/>
-    <row r="538" ht="12.75" customHeight="1"/>
-    <row r="539" ht="12.75" customHeight="1"/>
-    <row r="540" ht="12.75" customHeight="1"/>
-    <row r="541" ht="12.75" customHeight="1"/>
-    <row r="542" ht="12.75" customHeight="1"/>
-    <row r="543" ht="12.75" customHeight="1"/>
-    <row r="544" ht="12.75" customHeight="1"/>
-    <row r="545" ht="12.75" customHeight="1"/>
-    <row r="546" ht="12.75" customHeight="1"/>
-    <row r="547" ht="12.75" customHeight="1"/>
-    <row r="548" ht="12.75" customHeight="1"/>
-    <row r="549" ht="12.75" customHeight="1"/>
-    <row r="550" ht="12.75" customHeight="1"/>
-    <row r="551" ht="12.75" customHeight="1"/>
-    <row r="552" ht="12.75" customHeight="1"/>
-    <row r="553" ht="12.75" customHeight="1"/>
-    <row r="554" ht="12.75" customHeight="1"/>
-    <row r="555" ht="12.75" customHeight="1"/>
-    <row r="556" ht="12.75" customHeight="1"/>
-    <row r="557" ht="12.75" customHeight="1"/>
-    <row r="558" ht="12.75" customHeight="1"/>
-    <row r="559" ht="12.75" customHeight="1"/>
-    <row r="560" ht="12.75" customHeight="1"/>
-    <row r="561" ht="12.75" customHeight="1"/>
-    <row r="562" ht="12.75" customHeight="1"/>
-    <row r="563" ht="12.75" customHeight="1"/>
-    <row r="564" ht="12.75" customHeight="1"/>
-    <row r="565" ht="12.75" customHeight="1"/>
-    <row r="566" ht="12.75" customHeight="1"/>
-    <row r="567" ht="12.75" customHeight="1"/>
-    <row r="568" ht="12.75" customHeight="1"/>
-    <row r="569" ht="12.75" customHeight="1"/>
-    <row r="570" ht="12.75" customHeight="1"/>
-    <row r="571" ht="12.75" customHeight="1"/>
-    <row r="572" ht="12.75" customHeight="1"/>
-    <row r="573" ht="12.75" customHeight="1"/>
-    <row r="574" ht="12.75" customHeight="1"/>
-    <row r="575" ht="12.75" customHeight="1"/>
-    <row r="576" ht="12.75" customHeight="1"/>
-    <row r="577" ht="12.75" customHeight="1"/>
-    <row r="578" ht="12.75" customHeight="1"/>
-    <row r="579" ht="12.75" customHeight="1"/>
-    <row r="580" ht="12.75" customHeight="1"/>
-    <row r="581" ht="12.75" customHeight="1"/>
-    <row r="582" ht="12.75" customHeight="1"/>
-    <row r="583" ht="12.75" customHeight="1"/>
-    <row r="584" ht="12.75" customHeight="1"/>
-    <row r="585" ht="12.75" customHeight="1"/>
-    <row r="586" ht="12.75" customHeight="1"/>
-    <row r="587" ht="12.75" customHeight="1"/>
-    <row r="588" ht="12.75" customHeight="1"/>
-    <row r="589" ht="12.75" customHeight="1"/>
-    <row r="590" ht="12.75" customHeight="1"/>
-    <row r="591" ht="12.75" customHeight="1"/>
-    <row r="592" ht="12.75" customHeight="1"/>
-    <row r="593" ht="12.75" customHeight="1"/>
-    <row r="594" ht="12.75" customHeight="1"/>
-    <row r="595" ht="12.75" customHeight="1"/>
-    <row r="596" ht="12.75" customHeight="1"/>
-    <row r="597" ht="12.75" customHeight="1"/>
-    <row r="598" ht="12.75" customHeight="1"/>
-    <row r="599" ht="12.75" customHeight="1"/>
-    <row r="600" ht="12.75" customHeight="1"/>
-    <row r="601" ht="12.75" customHeight="1"/>
-    <row r="602" ht="12.75" customHeight="1"/>
-    <row r="603" ht="12.75" customHeight="1"/>
-    <row r="604" ht="12.75" customHeight="1"/>
-    <row r="605" ht="12.75" customHeight="1"/>
-    <row r="606" ht="12.75" customHeight="1"/>
-    <row r="607" ht="12.75" customHeight="1"/>
-    <row r="608" ht="12.75" customHeight="1"/>
-    <row r="609" ht="12.75" customHeight="1"/>
-    <row r="610" ht="12.75" customHeight="1"/>
-    <row r="611" ht="12.75" customHeight="1"/>
-    <row r="612" ht="12.75" customHeight="1"/>
-    <row r="613" ht="12.75" customHeight="1"/>
-    <row r="614" ht="12.75" customHeight="1"/>
-    <row r="615" ht="12.75" customHeight="1"/>
-    <row r="616" ht="12.75" customHeight="1"/>
-    <row r="617" ht="12.75" customHeight="1"/>
-    <row r="618" ht="12.75" customHeight="1"/>
-    <row r="619" ht="12.75" customHeight="1"/>
-    <row r="620" ht="12.75" customHeight="1"/>
-    <row r="621" ht="12.75" customHeight="1"/>
-    <row r="622" ht="12.75" customHeight="1"/>
-    <row r="623" ht="12.75" customHeight="1"/>
-    <row r="624" ht="12.75" customHeight="1"/>
-    <row r="625" ht="12.75" customHeight="1"/>
-    <row r="626" ht="12.75" customHeight="1"/>
-    <row r="627" ht="12.75" customHeight="1"/>
-    <row r="628" ht="12.75" customHeight="1"/>
-    <row r="629" ht="12.75" customHeight="1"/>
-    <row r="630" ht="12.75" customHeight="1"/>
-    <row r="631" ht="12.75" customHeight="1"/>
-    <row r="632" ht="12.75" customHeight="1"/>
-    <row r="633" ht="12.75" customHeight="1"/>
-    <row r="634" ht="12.75" customHeight="1"/>
-    <row r="635" ht="12.75" customHeight="1"/>
-    <row r="636" ht="12.75" customHeight="1"/>
-    <row r="637" ht="12.75" customHeight="1"/>
-    <row r="638" ht="12.75" customHeight="1"/>
-    <row r="639" ht="12.75" customHeight="1"/>
-    <row r="640" ht="12.75" customHeight="1"/>
-    <row r="641" ht="12.75" customHeight="1"/>
-    <row r="642" ht="12.75" customHeight="1"/>
-    <row r="643" ht="12.75" customHeight="1"/>
-    <row r="644" ht="12.75" customHeight="1"/>
-    <row r="645" ht="12.75" customHeight="1"/>
-    <row r="646" ht="12.75" customHeight="1"/>
-    <row r="647" ht="12.75" customHeight="1"/>
-    <row r="648" ht="12.75" customHeight="1"/>
-    <row r="649" ht="12.75" customHeight="1"/>
-    <row r="650" ht="12.75" customHeight="1"/>
-    <row r="651" ht="12.75" customHeight="1"/>
-    <row r="652" ht="12.75" customHeight="1"/>
-    <row r="653" ht="12.75" customHeight="1"/>
-    <row r="654" ht="12.75" customHeight="1"/>
-    <row r="655" ht="12.75" customHeight="1"/>
-    <row r="656" ht="12.75" customHeight="1"/>
-    <row r="657" ht="12.75" customHeight="1"/>
-    <row r="658" ht="12.75" customHeight="1"/>
-    <row r="659" ht="12.75" customHeight="1"/>
-    <row r="660" ht="12.75" customHeight="1"/>
-    <row r="661" ht="12.75" customHeight="1"/>
-    <row r="662" ht="12.75" customHeight="1"/>
-    <row r="663" ht="12.75" customHeight="1"/>
-    <row r="664" ht="12.75" customHeight="1"/>
-    <row r="665" ht="12.75" customHeight="1"/>
-    <row r="666" ht="12.75" customHeight="1"/>
-    <row r="667" ht="12.75" customHeight="1"/>
-    <row r="668" ht="12.75" customHeight="1"/>
-    <row r="669" ht="12.75" customHeight="1"/>
-    <row r="670" ht="12.75" customHeight="1"/>
-    <row r="671" ht="12.75" customHeight="1"/>
-    <row r="672" ht="12.75" customHeight="1"/>
-    <row r="673" ht="12.75" customHeight="1"/>
-    <row r="674" ht="12.75" customHeight="1"/>
-    <row r="675" ht="12.75" customHeight="1"/>
-    <row r="676" ht="12.75" customHeight="1"/>
-    <row r="677" ht="12.75" customHeight="1"/>
-    <row r="678" ht="12.75" customHeight="1"/>
-    <row r="679" ht="12.75" customHeight="1"/>
-    <row r="680" ht="12.75" customHeight="1"/>
-    <row r="681" ht="12.75" customHeight="1"/>
-    <row r="682" ht="12.75" customHeight="1"/>
-    <row r="683" ht="12.75" customHeight="1"/>
-    <row r="684" ht="12.75" customHeight="1"/>
-    <row r="685" ht="12.75" customHeight="1"/>
-    <row r="686" ht="12.75" customHeight="1"/>
-    <row r="687" ht="12.75" customHeight="1"/>
-    <row r="688" ht="12.75" customHeight="1"/>
-    <row r="689" ht="12.75" customHeight="1"/>
-    <row r="690" ht="12.75" customHeight="1"/>
-    <row r="691" ht="12.75" customHeight="1"/>
-    <row r="692" ht="12.75" customHeight="1"/>
-    <row r="693" ht="12.75" customHeight="1"/>
-    <row r="694" ht="12.75" customHeight="1"/>
-    <row r="695" ht="12.75" customHeight="1"/>
-    <row r="696" ht="12.75" customHeight="1"/>
-    <row r="697" ht="12.75" customHeight="1"/>
-    <row r="698" ht="12.75" customHeight="1"/>
-    <row r="699" ht="12.75" customHeight="1"/>
-    <row r="700" ht="12.75" customHeight="1"/>
-    <row r="701" ht="12.75" customHeight="1"/>
-    <row r="702" ht="12.75" customHeight="1"/>
-    <row r="703" ht="12.75" customHeight="1"/>
-    <row r="704" ht="12.75" customHeight="1"/>
-    <row r="705" ht="12.75" customHeight="1"/>
-    <row r="706" ht="12.75" customHeight="1"/>
-    <row r="707" ht="12.75" customHeight="1"/>
-    <row r="708" ht="12.75" customHeight="1"/>
-    <row r="709" ht="12.75" customHeight="1"/>
-    <row r="710" ht="12.75" customHeight="1"/>
-    <row r="711" ht="12.75" customHeight="1"/>
-    <row r="712" ht="12.75" customHeight="1"/>
-    <row r="713" ht="12.75" customHeight="1"/>
-    <row r="714" ht="12.75" customHeight="1"/>
-    <row r="715" ht="12.75" customHeight="1"/>
-    <row r="716" ht="12.75" customHeight="1"/>
-    <row r="717" ht="12.75" customHeight="1"/>
-    <row r="718" ht="12.75" customHeight="1"/>
-    <row r="719" ht="12.75" customHeight="1"/>
-    <row r="720" ht="12.75" customHeight="1"/>
-    <row r="721" ht="12.75" customHeight="1"/>
-    <row r="722" ht="12.75" customHeight="1"/>
-    <row r="723" ht="12.75" customHeight="1"/>
-    <row r="724" ht="12.75" customHeight="1"/>
-    <row r="725" ht="12.75" customHeight="1"/>
-    <row r="726" ht="12.75" customHeight="1"/>
-    <row r="727" ht="12.75" customHeight="1"/>
-    <row r="728" ht="12.75" customHeight="1"/>
-    <row r="729" ht="12.75" customHeight="1"/>
-    <row r="730" ht="12.75" customHeight="1"/>
-    <row r="731" ht="12.75" customHeight="1"/>
-    <row r="732" ht="12.75" customHeight="1"/>
-    <row r="733" ht="12.75" customHeight="1"/>
-    <row r="734" ht="12.75" customHeight="1"/>
-    <row r="735" ht="12.75" customHeight="1"/>
-    <row r="736" ht="12.75" customHeight="1"/>
-    <row r="737" ht="12.75" customHeight="1"/>
-    <row r="738" ht="12.75" customHeight="1"/>
-    <row r="739" ht="12.75" customHeight="1"/>
-    <row r="740" ht="12.75" customHeight="1"/>
-    <row r="741" ht="12.75" customHeight="1"/>
-    <row r="742" ht="12.75" customHeight="1"/>
-    <row r="743" ht="12.75" customHeight="1"/>
-    <row r="744" ht="12.75" customHeight="1"/>
-    <row r="745" ht="12.75" customHeight="1"/>
-    <row r="746" ht="12.75" customHeight="1"/>
-    <row r="747" ht="12.75" customHeight="1"/>
-    <row r="748" ht="12.75" customHeight="1"/>
-    <row r="749" ht="12.75" customHeight="1"/>
-    <row r="750" ht="12.75" customHeight="1"/>
-    <row r="751" ht="12.75" customHeight="1"/>
-    <row r="752" ht="12.75" customHeight="1"/>
-    <row r="753" ht="12.75" customHeight="1"/>
-    <row r="754" ht="12.75" customHeight="1"/>
-    <row r="755" ht="12.75" customHeight="1"/>
-    <row r="756" ht="12.75" customHeight="1"/>
-    <row r="757" ht="12.75" customHeight="1"/>
-    <row r="758" ht="12.75" customHeight="1"/>
-    <row r="759" ht="12.75" customHeight="1"/>
-    <row r="760" ht="12.75" customHeight="1"/>
-    <row r="761" ht="12.75" customHeight="1"/>
-    <row r="762" ht="12.75" customHeight="1"/>
-    <row r="763" ht="12.75" customHeight="1"/>
-    <row r="764" ht="12.75" customHeight="1"/>
-    <row r="765" ht="12.75" customHeight="1"/>
-    <row r="766" ht="12.75" customHeight="1"/>
-    <row r="767" ht="12.75" customHeight="1"/>
-    <row r="768" ht="12.75" customHeight="1"/>
-    <row r="769" ht="12.75" customHeight="1"/>
-    <row r="770" ht="12.75" customHeight="1"/>
-    <row r="771" ht="12.75" customHeight="1"/>
-    <row r="772" ht="12.75" customHeight="1"/>
-    <row r="773" ht="12.75" customHeight="1"/>
-    <row r="774" ht="12.75" customHeight="1"/>
-    <row r="775" ht="12.75" customHeight="1"/>
-    <row r="776" ht="12.75" customHeight="1"/>
-    <row r="777" ht="12.75" customHeight="1"/>
-    <row r="778" ht="12.75" customHeight="1"/>
-    <row r="779" ht="12.75" customHeight="1"/>
-    <row r="780" ht="12.75" customHeight="1"/>
-    <row r="781" ht="12.75" customHeight="1"/>
-    <row r="782" ht="12.75" customHeight="1"/>
-    <row r="783" ht="12.75" customHeight="1"/>
-    <row r="784" ht="12.75" customHeight="1"/>
-    <row r="785" ht="12.75" customHeight="1"/>
-    <row r="786" ht="12.75" customHeight="1"/>
-    <row r="787" ht="12.75" customHeight="1"/>
-    <row r="788" ht="12.75" customHeight="1"/>
-    <row r="789" ht="12.75" customHeight="1"/>
-    <row r="790" ht="12.75" customHeight="1"/>
-    <row r="791" ht="12.75" customHeight="1"/>
-    <row r="792" ht="12.75" customHeight="1"/>
-    <row r="793" ht="12.75" customHeight="1"/>
-    <row r="794" ht="12.75" customHeight="1"/>
-    <row r="795" ht="12.75" customHeight="1"/>
-    <row r="796" ht="12.75" customHeight="1"/>
-    <row r="797" ht="12.75" customHeight="1"/>
-    <row r="798" ht="12.75" customHeight="1"/>
-    <row r="799" ht="12.75" customHeight="1"/>
-    <row r="800" ht="12.75" customHeight="1"/>
-    <row r="801" ht="12.75" customHeight="1"/>
-    <row r="802" ht="12.75" customHeight="1"/>
-    <row r="803" ht="12.75" customHeight="1"/>
-    <row r="804" ht="12.75" customHeight="1"/>
-    <row r="805" ht="12.75" customHeight="1"/>
-    <row r="806" ht="12.75" customHeight="1"/>
-    <row r="807" ht="12.75" customHeight="1"/>
-    <row r="808" ht="12.75" customHeight="1"/>
-    <row r="809" ht="12.75" customHeight="1"/>
-    <row r="810" ht="12.75" customHeight="1"/>
-    <row r="811" ht="12.75" customHeight="1"/>
-    <row r="812" ht="12.75" customHeight="1"/>
-    <row r="813" ht="12.75" customHeight="1"/>
-    <row r="814" ht="12.75" customHeight="1"/>
-    <row r="815" ht="12.75" customHeight="1"/>
-    <row r="816" ht="12.75" customHeight="1"/>
-    <row r="817" ht="12.75" customHeight="1"/>
-    <row r="818" ht="12.75" customHeight="1"/>
-    <row r="819" ht="12.75" customHeight="1"/>
-    <row r="820" ht="12.75" customHeight="1"/>
-    <row r="821" ht="12.75" customHeight="1"/>
-    <row r="822" ht="12.75" customHeight="1"/>
-    <row r="823" ht="12.75" customHeight="1"/>
-    <row r="824" ht="12.75" customHeight="1"/>
-    <row r="825" ht="12.75" customHeight="1"/>
-    <row r="826" ht="12.75" customHeight="1"/>
-    <row r="827" ht="12.75" customHeight="1"/>
-    <row r="828" ht="12.75" customHeight="1"/>
-    <row r="829" ht="12.75" customHeight="1"/>
-    <row r="830" ht="12.75" customHeight="1"/>
-    <row r="831" ht="12.75" customHeight="1"/>
-    <row r="832" ht="12.75" customHeight="1"/>
-    <row r="833" ht="12.75" customHeight="1"/>
-    <row r="834" ht="12.75" customHeight="1"/>
-    <row r="835" ht="12.75" customHeight="1"/>
-    <row r="836" ht="12.75" customHeight="1"/>
-    <row r="837" ht="12.75" customHeight="1"/>
-    <row r="838" ht="12.75" customHeight="1"/>
-    <row r="839" ht="12.75" customHeight="1"/>
-    <row r="840" ht="12.75" customHeight="1"/>
-    <row r="841" ht="12.75" customHeight="1"/>
-    <row r="842" ht="12.75" customHeight="1"/>
-    <row r="843" ht="12.75" customHeight="1"/>
-    <row r="844" ht="12.75" customHeight="1"/>
-    <row r="845" ht="12.75" customHeight="1"/>
-    <row r="846" ht="12.75" customHeight="1"/>
-    <row r="847" ht="12.75" customHeight="1"/>
-    <row r="848" ht="12.75" customHeight="1"/>
-    <row r="849" ht="12.75" customHeight="1"/>
-    <row r="850" ht="12.75" customHeight="1"/>
-    <row r="851" ht="12.75" customHeight="1"/>
-    <row r="852" ht="12.75" customHeight="1"/>
-    <row r="853" ht="12.75" customHeight="1"/>
-    <row r="854" ht="12.75" customHeight="1"/>
-    <row r="855" ht="12.75" customHeight="1"/>
-    <row r="856" ht="12.75" customHeight="1"/>
-    <row r="857" ht="12.75" customHeight="1"/>
-    <row r="858" ht="12.75" customHeight="1"/>
-    <row r="859" ht="12.75" customHeight="1"/>
-    <row r="860" ht="12.75" customHeight="1"/>
-    <row r="861" ht="12.75" customHeight="1"/>
-    <row r="862" ht="12.75" customHeight="1"/>
-    <row r="863" ht="12.75" customHeight="1"/>
-    <row r="864" ht="12.75" customHeight="1"/>
-    <row r="865" ht="12.75" customHeight="1"/>
-    <row r="866" ht="12.75" customHeight="1"/>
-    <row r="867" ht="12.75" customHeight="1"/>
-    <row r="868" ht="12.75" customHeight="1"/>
-    <row r="869" ht="12.75" customHeight="1"/>
-    <row r="870" ht="12.75" customHeight="1"/>
-    <row r="871" ht="12.75" customHeight="1"/>
-    <row r="872" ht="12.75" customHeight="1"/>
-    <row r="873" ht="12.75" customHeight="1"/>
-    <row r="874" ht="12.75" customHeight="1"/>
-    <row r="875" ht="12.75" customHeight="1"/>
-    <row r="876" ht="12.75" customHeight="1"/>
-    <row r="877" ht="12.75" customHeight="1"/>
-    <row r="878" ht="12.75" customHeight="1"/>
-    <row r="879" ht="12.75" customHeight="1"/>
-    <row r="880" ht="12.75" customHeight="1"/>
-    <row r="881" ht="12.75" customHeight="1"/>
-    <row r="882" ht="12.75" customHeight="1"/>
-    <row r="883" ht="12.75" customHeight="1"/>
-    <row r="884" ht="12.75" customHeight="1"/>
-    <row r="885" ht="12.75" customHeight="1"/>
-    <row r="886" ht="12.75" customHeight="1"/>
-    <row r="887" ht="12.75" customHeight="1"/>
-    <row r="888" ht="12.75" customHeight="1"/>
-    <row r="889" ht="12.75" customHeight="1"/>
-    <row r="890" ht="12.75" customHeight="1"/>
-    <row r="891" ht="12.75" customHeight="1"/>
-    <row r="892" ht="12.75" customHeight="1"/>
-    <row r="893" ht="12.75" customHeight="1"/>
-    <row r="894" ht="12.75" customHeight="1"/>
-    <row r="895" ht="12.75" customHeight="1"/>
-    <row r="896" ht="12.75" customHeight="1"/>
-    <row r="897" ht="12.75" customHeight="1"/>
-    <row r="898" ht="12.75" customHeight="1"/>
-    <row r="899" ht="12.75" customHeight="1"/>
-    <row r="900" ht="12.75" customHeight="1"/>
-    <row r="901" ht="12.75" customHeight="1"/>
-    <row r="902" ht="12.75" customHeight="1"/>
-    <row r="903" ht="12.75" customHeight="1"/>
-    <row r="904" ht="12.75" customHeight="1"/>
-    <row r="905" ht="12.75" customHeight="1"/>
-    <row r="906" ht="12.75" customHeight="1"/>
-    <row r="907" ht="12.75" customHeight="1"/>
-    <row r="908" ht="12.75" customHeight="1"/>
-    <row r="909" ht="12.75" customHeight="1"/>
-    <row r="910" ht="12.75" customHeight="1"/>
-    <row r="911" ht="12.75" customHeight="1"/>
-    <row r="912" ht="12.75" customHeight="1"/>
-    <row r="913" ht="12.75" customHeight="1"/>
-    <row r="914" ht="12.75" customHeight="1"/>
-    <row r="915" ht="12.75" customHeight="1"/>
-    <row r="916" ht="12.75" customHeight="1"/>
-    <row r="917" ht="12.75" customHeight="1"/>
-    <row r="918" ht="12.75" customHeight="1"/>
-    <row r="919" ht="12.75" customHeight="1"/>
-    <row r="920" ht="12.75" customHeight="1"/>
-    <row r="921" ht="12.75" customHeight="1"/>
-    <row r="922" ht="12.75" customHeight="1"/>
-    <row r="923" ht="12.75" customHeight="1"/>
-    <row r="924" ht="12.75" customHeight="1"/>
-    <row r="925" ht="12.75" customHeight="1"/>
-    <row r="926" ht="12.75" customHeight="1"/>
-    <row r="927" ht="12.75" customHeight="1"/>
-    <row r="928" ht="12.75" customHeight="1"/>
-    <row r="929" ht="12.75" customHeight="1"/>
-    <row r="930" ht="12.75" customHeight="1"/>
-    <row r="931" ht="12.75" customHeight="1"/>
-    <row r="932" ht="12.75" customHeight="1"/>
-    <row r="933" ht="12.75" customHeight="1"/>
-    <row r="934" ht="12.75" customHeight="1"/>
-    <row r="935" ht="12.75" customHeight="1"/>
-    <row r="936" ht="12.75" customHeight="1"/>
-    <row r="937" ht="12.75" customHeight="1"/>
-    <row r="938" ht="12.75" customHeight="1"/>
-    <row r="939" ht="12.75" customHeight="1"/>
-    <row r="940" ht="12.75" customHeight="1"/>
-    <row r="941" ht="12.75" customHeight="1"/>
-    <row r="942" ht="12.75" customHeight="1"/>
-    <row r="943" ht="12.75" customHeight="1"/>
-    <row r="944" ht="12.75" customHeight="1"/>
-    <row r="945" ht="12.75" customHeight="1"/>
-    <row r="946" ht="12.75" customHeight="1"/>
-    <row r="947" ht="12.75" customHeight="1"/>
-    <row r="948" ht="12.75" customHeight="1"/>
-    <row r="949" ht="12.75" customHeight="1"/>
-    <row r="950" ht="12.75" customHeight="1"/>
-    <row r="951" ht="12.75" customHeight="1"/>
-    <row r="952" ht="12.75" customHeight="1"/>
-    <row r="953" ht="12.75" customHeight="1"/>
-    <row r="954" ht="12.75" customHeight="1"/>
-    <row r="955" ht="12.75" customHeight="1"/>
-    <row r="956" ht="12.75" customHeight="1"/>
-    <row r="957" ht="12.75" customHeight="1"/>
-    <row r="958" ht="12.75" customHeight="1"/>
-    <row r="959" ht="12.75" customHeight="1"/>
-    <row r="960" ht="12.75" customHeight="1"/>
-    <row r="961" ht="12.75" customHeight="1"/>
-    <row r="962" ht="12.75" customHeight="1"/>
-    <row r="963" ht="12.75" customHeight="1"/>
-    <row r="964" ht="12.75" customHeight="1"/>
-    <row r="965" ht="12.75" customHeight="1"/>
-    <row r="966" ht="12.75" customHeight="1"/>
-    <row r="967" ht="12.75" customHeight="1"/>
-    <row r="968" ht="12.75" customHeight="1"/>
-    <row r="969" ht="12.75" customHeight="1"/>
-    <row r="970" ht="12.75" customHeight="1"/>
-    <row r="971" ht="12.75" customHeight="1"/>
-    <row r="972" ht="12.75" customHeight="1"/>
-    <row r="973" ht="12.75" customHeight="1"/>
-    <row r="974" ht="12.75" customHeight="1"/>
-    <row r="975" ht="12.75" customHeight="1"/>
-    <row r="976" ht="12.75" customHeight="1"/>
-    <row r="977" ht="12.75" customHeight="1"/>
-    <row r="978" ht="12.75" customHeight="1"/>
-    <row r="979" ht="12.75" customHeight="1"/>
-    <row r="980" ht="12.75" customHeight="1"/>
-    <row r="981" ht="12.75" customHeight="1"/>
-    <row r="982" ht="12.75" customHeight="1"/>
-    <row r="983" ht="12.75" customHeight="1"/>
-    <row r="984" ht="12.75" customHeight="1"/>
-    <row r="985" ht="12.75" customHeight="1"/>
-    <row r="986" ht="12.75" customHeight="1"/>
-    <row r="987" ht="12.75" customHeight="1"/>
-    <row r="988" ht="12.75" customHeight="1"/>
-    <row r="989" ht="12.75" customHeight="1"/>
-    <row r="990" ht="12.75" customHeight="1"/>
-    <row r="991" ht="12.75" customHeight="1"/>
-    <row r="992" ht="12.75" customHeight="1"/>
-    <row r="993" ht="12.75" customHeight="1"/>
-    <row r="994" ht="12.75" customHeight="1"/>
-    <row r="995" ht="12.75" customHeight="1"/>
-    <row r="996" ht="12.75" customHeight="1"/>
-    <row r="997" ht="12.75" customHeight="1"/>
-    <row r="998" ht="12.75" customHeight="1"/>
-    <row r="999" ht="12.75" customHeight="1"/>
-    <row r="1000" ht="12.75" customHeight="1"/>
+    <row r="56" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="57" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="58" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="59" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="60" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="61" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="62" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="63" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="64" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="65" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="66" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="67" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="68" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="69" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="70" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="71" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="72" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="73" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="74" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="75" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="76" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="77" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="78" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="79" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="80" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="81" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="82" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="83" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="84" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="85" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="86" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="87" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="88" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="89" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="90" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="91" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="92" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="93" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="94" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="95" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="96" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="97" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="98" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="99" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="100" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="101" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="102" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="103" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="104" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="105" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="106" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="107" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="108" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="109" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="110" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="111" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="112" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="113" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="114" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="115" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="116" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="117" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="118" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="119" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="120" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="121" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="122" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="123" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="124" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="125" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="126" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="127" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="128" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="129" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="130" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="131" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="132" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="133" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="134" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="135" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="136" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="137" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="138" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="139" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="140" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="141" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="142" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="143" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="144" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="145" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="146" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="147" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="148" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="149" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="150" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="151" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="152" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="153" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="154" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="155" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="156" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="157" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="158" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="159" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="160" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="161" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="162" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="163" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="164" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="165" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="166" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="167" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="168" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="169" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="170" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="171" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="172" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="173" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="174" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="175" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="176" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="177" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="178" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="179" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="180" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="181" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="182" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="183" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="184" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="185" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="186" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="187" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="188" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="189" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="190" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="191" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="192" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="193" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="194" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="195" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="196" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="197" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="198" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="199" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="200" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="201" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="202" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="203" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="204" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="205" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="206" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="207" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="208" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="209" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="210" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="211" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="212" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="213" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="214" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="215" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="216" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="217" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="218" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="219" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="220" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="221" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="222" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="223" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="224" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="225" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="226" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="227" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="228" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="229" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="230" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="231" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="232" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="233" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="234" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="235" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="236" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="237" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="238" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="239" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="240" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="241" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="242" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="243" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="244" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="245" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="246" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="247" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="248" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="249" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="250" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="251" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="252" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="253" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="254" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="255" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="256" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="257" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="258" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="259" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="260" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="261" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="262" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="263" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="264" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="265" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="266" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="267" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="268" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="269" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="270" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="271" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="272" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="273" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="274" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="275" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="276" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="277" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="278" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="279" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="280" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="281" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="282" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="283" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="284" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="285" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="286" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="287" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="288" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="289" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="290" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="291" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="292" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="293" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="294" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="295" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="296" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="297" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="298" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="299" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="300" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="301" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="302" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="303" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="304" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="305" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="306" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="307" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="308" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="309" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="310" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="311" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="312" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="313" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="314" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="315" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="316" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="317" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="318" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="319" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="320" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="321" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="322" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="323" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="324" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="325" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="326" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="327" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="328" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="329" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="330" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="331" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="332" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="333" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="334" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="335" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="336" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="337" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="338" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="339" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="340" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="341" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="342" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="343" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="344" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="345" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="346" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="347" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="348" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="349" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="350" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="351" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="352" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="353" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="354" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="355" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="356" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="357" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="358" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="359" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="360" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="361" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="362" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="363" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="364" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="365" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="366" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="367" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="368" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="369" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="370" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="371" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="372" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="373" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="374" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="375" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="376" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="377" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="378" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="379" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="380" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="381" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="382" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="383" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="384" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="385" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="386" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="387" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="388" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="389" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="390" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="391" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="392" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="393" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="394" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="395" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="396" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="397" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="398" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="399" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="400" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="401" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="402" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="403" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="404" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="405" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="406" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="407" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="408" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="409" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="410" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="411" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="412" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="413" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="414" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="415" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="416" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="417" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="418" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="419" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="420" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="421" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="422" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="423" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="424" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="425" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="426" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="427" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="428" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="429" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="430" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="431" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="432" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="433" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="434" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="435" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="436" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="437" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="438" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="439" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="440" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="441" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="442" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="443" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="444" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="445" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="446" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="447" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="448" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="449" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="450" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="451" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="452" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="453" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="454" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="455" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="456" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="457" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="458" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="459" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="460" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="461" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="462" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="463" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="464" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="465" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="466" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="467" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="468" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="469" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="470" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="471" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="472" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="473" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="474" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="475" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="476" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="477" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="478" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="479" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="480" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="481" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="482" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="483" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="484" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="485" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="486" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="487" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="488" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="489" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="490" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="491" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="492" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="493" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="494" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="495" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="496" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="497" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="498" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="499" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="500" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="501" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="502" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="503" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="504" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="505" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="506" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="507" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="508" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="509" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="510" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="511" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="512" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="513" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="514" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="515" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="516" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="517" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="518" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="519" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="520" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="521" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="522" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="523" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="524" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="525" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="526" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="527" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="528" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="529" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="530" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="531" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="532" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="533" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="534" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="535" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="536" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="537" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="538" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="539" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="540" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="541" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="542" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="543" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="544" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="545" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="546" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="547" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="548" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="549" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="550" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="551" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="552" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="553" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="554" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="555" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="556" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="557" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="558" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="559" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="560" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="561" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="562" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="563" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="564" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="565" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="566" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="567" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="568" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="569" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="570" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="571" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="572" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="573" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="574" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="575" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="576" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="577" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="578" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="579" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="580" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="581" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="582" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="583" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="584" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="585" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="586" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="587" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="588" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="589" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="590" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="591" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="592" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="593" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="594" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="595" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="596" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="597" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="598" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="599" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="600" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="601" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="602" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="603" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="604" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="605" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="606" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="607" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="608" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="609" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="610" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="611" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="612" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="613" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="614" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="615" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="616" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="617" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="618" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="619" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="620" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="621" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="622" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="623" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="624" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="625" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="626" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="627" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="628" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="629" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="630" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="631" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="632" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="633" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="634" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="635" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="636" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="637" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="638" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="639" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="640" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="641" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="642" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="643" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="644" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="645" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="646" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="647" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="648" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="649" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="650" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="651" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="652" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="653" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="654" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="655" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="656" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="657" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="658" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="659" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="660" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="661" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="662" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="663" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="664" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="665" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="666" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="667" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="668" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="669" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="670" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="671" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="672" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="673" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="674" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="675" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="676" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="677" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="678" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="679" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="680" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="681" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="682" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="683" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="684" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="685" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="686" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="687" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="688" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="689" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="690" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="691" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="692" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="693" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="694" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="695" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="696" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="697" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="698" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="699" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="700" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="701" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="702" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="703" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="704" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="705" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="706" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="707" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="708" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="709" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="710" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="711" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="712" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="713" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="714" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="715" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="716" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="717" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="718" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="719" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="720" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="721" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="722" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="723" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="724" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="725" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="726" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="727" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="728" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="729" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="730" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="731" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="732" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="733" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="734" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="735" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="736" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="737" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="738" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="739" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="740" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="741" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="742" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="743" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="744" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="745" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="746" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="747" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="748" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="749" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="750" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="751" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="752" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="753" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="754" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="755" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="756" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="757" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="758" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="759" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="760" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="761" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="762" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="763" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="764" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="765" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="766" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="767" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="768" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="769" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="770" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="771" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="772" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="773" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="774" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="775" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="776" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="777" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="778" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="779" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="780" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="781" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="782" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="783" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="784" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="785" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="786" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="787" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="788" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="789" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="790" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="791" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="792" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="793" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="794" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="795" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="796" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="797" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="798" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="799" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="800" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="801" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="802" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="803" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="804" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="805" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="806" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="807" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="808" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="809" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="810" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="811" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="812" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="813" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="814" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="815" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="816" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="817" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="818" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="819" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="820" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="821" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="822" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="823" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="824" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="825" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="826" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="827" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="828" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="829" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="830" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="831" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="832" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="833" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="834" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="835" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="836" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="837" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="838" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="839" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="840" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="841" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="842" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="843" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="844" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="845" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="846" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="847" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="848" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="849" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="850" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="851" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="852" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="853" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="854" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="855" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="856" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="857" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="858" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="859" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="860" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="861" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="862" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="863" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="864" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="865" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="866" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="867" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="868" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="869" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="870" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="871" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="872" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="873" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="874" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="875" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="876" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="877" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="878" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="879" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="880" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="881" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="882" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="883" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="884" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="885" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="886" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="887" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="888" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="889" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="890" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="891" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="892" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="893" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="894" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="895" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="896" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="897" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="898" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="899" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="900" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="901" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="902" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="903" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="904" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="905" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="906" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="907" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="908" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="909" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="910" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="911" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="912" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="913" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="914" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="915" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="916" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="917" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="918" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="919" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="920" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="921" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="922" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="923" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="924" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="925" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="926" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="927" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="928" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="929" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="930" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="931" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="932" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="933" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="934" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="935" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="936" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="937" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="938" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="939" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="940" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="941" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="942" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="943" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="944" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="945" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="946" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="947" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="948" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="949" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="950" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="951" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="952" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="953" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="954" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="955" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="956" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="957" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="958" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="959" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="960" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="961" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="962" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="963" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="964" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="965" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="966" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="967" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="968" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="969" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="970" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="971" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="972" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="973" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="974" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="975" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="976" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="977" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="978" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="979" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="980" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="981" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="982" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="983" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="984" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="985" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="986" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="987" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="988" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="989" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="990" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="991" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="992" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="993" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="994" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="995" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="996" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="997" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="998" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="999" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1000" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>